--- a/test-pivot-table.xlsx
+++ b/test-pivot-table.xlsx
@@ -140,7 +140,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>5994</v>
+        <v>8543</v>
       </c>
     </row>
     <row r="3">
@@ -154,7 +154,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>2722</v>
+        <v>6189</v>
       </c>
     </row>
     <row r="4">
@@ -168,7 +168,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>3046</v>
+        <v>5250</v>
       </c>
     </row>
     <row r="5">
@@ -182,7 +182,7 @@
         <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>3782</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="6">
@@ -196,7 +196,7 @@
         <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>8472</v>
+        <v>9929</v>
       </c>
     </row>
     <row r="7">
@@ -210,7 +210,7 @@
         <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>2854</v>
+        <v>4310</v>
       </c>
     </row>
     <row r="8">
@@ -224,7 +224,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>3443</v>
+        <v>3398</v>
       </c>
     </row>
     <row r="9">
@@ -238,7 +238,7 @@
         <v>9</v>
       </c>
       <c r="D9" t="n">
-        <v>5151</v>
+        <v>3145</v>
       </c>
     </row>
     <row r="10">
@@ -252,7 +252,7 @@
         <v>12</v>
       </c>
       <c r="D10" t="n">
-        <v>10866</v>
+        <v>7329</v>
       </c>
     </row>
     <row r="11">
@@ -266,7 +266,7 @@
         <v>15</v>
       </c>
       <c r="D11" t="n">
-        <v>1348</v>
+        <v>8568</v>
       </c>
     </row>
     <row r="12">
@@ -280,7 +280,7 @@
         <v>17</v>
       </c>
       <c r="D12" t="n">
-        <v>4153</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="13">
@@ -294,7 +294,7 @@
         <v>19</v>
       </c>
       <c r="D13" t="n">
-        <v>2667</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="14">
@@ -308,7 +308,7 @@
         <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>3284</v>
+        <v>3307</v>
       </c>
     </row>
     <row r="15">
@@ -322,7 +322,7 @@
         <v>9</v>
       </c>
       <c r="D15" t="n">
-        <v>2956</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="16">
@@ -336,7 +336,7 @@
         <v>12</v>
       </c>
       <c r="D16" t="n">
-        <v>1402</v>
+        <v>8088</v>
       </c>
     </row>
     <row r="17">
@@ -350,7 +350,7 @@
         <v>15</v>
       </c>
       <c r="D17" t="n">
-        <v>6831</v>
+        <v>4249</v>
       </c>
     </row>
     <row r="18">
@@ -364,7 +364,7 @@
         <v>17</v>
       </c>
       <c r="D18" t="n">
-        <v>1722</v>
+        <v>3309</v>
       </c>
     </row>
     <row r="19">
@@ -378,7 +378,7 @@
         <v>19</v>
       </c>
       <c r="D19" t="n">
-        <v>10448</v>
+        <v>5447</v>
       </c>
     </row>
     <row r="20">
@@ -392,7 +392,7 @@
         <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>1149</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="21">
@@ -406,7 +406,7 @@
         <v>9</v>
       </c>
       <c r="D21" t="n">
-        <v>6712</v>
+        <v>3596</v>
       </c>
     </row>
     <row r="22">
@@ -420,7 +420,7 @@
         <v>12</v>
       </c>
       <c r="D22" t="n">
-        <v>1231</v>
+        <v>8802</v>
       </c>
     </row>
     <row r="23">
@@ -434,7 +434,7 @@
         <v>15</v>
       </c>
       <c r="D23" t="n">
-        <v>3949</v>
+        <v>4769</v>
       </c>
     </row>
     <row r="24">
@@ -448,7 +448,7 @@
         <v>17</v>
       </c>
       <c r="D24" t="n">
-        <v>5844</v>
+        <v>8657</v>
       </c>
     </row>
     <row r="25">
@@ -462,7 +462,7 @@
         <v>19</v>
       </c>
       <c r="D25" t="n">
-        <v>9283</v>
+        <v>3752</v>
       </c>
     </row>
     <row r="26">
@@ -476,7 +476,7 @@
         <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>1180</v>
+        <v>7074</v>
       </c>
     </row>
     <row r="27">
@@ -490,7 +490,7 @@
         <v>9</v>
       </c>
       <c r="D27" t="n">
-        <v>6634</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="28">
@@ -504,7 +504,7 @@
         <v>12</v>
       </c>
       <c r="D28" t="n">
-        <v>6553</v>
+        <v>8475</v>
       </c>
     </row>
     <row r="29">
@@ -518,7 +518,7 @@
         <v>15</v>
       </c>
       <c r="D29" t="n">
-        <v>6583</v>
+        <v>10082</v>
       </c>
     </row>
     <row r="30">
@@ -532,7 +532,7 @@
         <v>17</v>
       </c>
       <c r="D30" t="n">
-        <v>8076</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="31">
@@ -546,7 +546,7 @@
         <v>19</v>
       </c>
       <c r="D31" t="n">
-        <v>4072</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="32">
@@ -560,7 +560,7 @@
         <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>4246</v>
+        <v>7020</v>
       </c>
     </row>
     <row r="33">
@@ -574,7 +574,7 @@
         <v>9</v>
       </c>
       <c r="D33" t="n">
-        <v>3727</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="34">
@@ -588,7 +588,7 @@
         <v>12</v>
       </c>
       <c r="D34" t="n">
-        <v>6490</v>
+        <v>5085</v>
       </c>
     </row>
     <row r="35">
@@ -602,7 +602,7 @@
         <v>15</v>
       </c>
       <c r="D35" t="n">
-        <v>1820</v>
+        <v>10433</v>
       </c>
     </row>
     <row r="36">
@@ -616,7 +616,7 @@
         <v>17</v>
       </c>
       <c r="D36" t="n">
-        <v>2017</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="37">
@@ -630,7 +630,7 @@
         <v>19</v>
       </c>
       <c r="D37" t="n">
-        <v>2075</v>
+        <v>9186</v>
       </c>
     </row>
     <row r="38">
@@ -644,7 +644,7 @@
         <v>6</v>
       </c>
       <c r="D38" t="n">
-        <v>6845</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="39">
@@ -658,7 +658,7 @@
         <v>9</v>
       </c>
       <c r="D39" t="n">
-        <v>5199</v>
+        <v>6327</v>
       </c>
     </row>
     <row r="40">
@@ -672,7 +672,7 @@
         <v>12</v>
       </c>
       <c r="D40" t="n">
-        <v>10261</v>
+        <v>5989</v>
       </c>
     </row>
     <row r="41">
@@ -686,7 +686,7 @@
         <v>15</v>
       </c>
       <c r="D41" t="n">
-        <v>5726</v>
+        <v>7763</v>
       </c>
     </row>
     <row r="42">
@@ -700,7 +700,7 @@
         <v>17</v>
       </c>
       <c r="D42" t="n">
-        <v>1895</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="43">
@@ -714,7 +714,7 @@
         <v>19</v>
       </c>
       <c r="D43" t="n">
-        <v>1967</v>
+        <v>5493</v>
       </c>
     </row>
     <row r="44">
@@ -728,7 +728,7 @@
         <v>6</v>
       </c>
       <c r="D44" t="n">
-        <v>6342</v>
+        <v>8922</v>
       </c>
     </row>
     <row r="45">
@@ -742,7 +742,7 @@
         <v>9</v>
       </c>
       <c r="D45" t="n">
-        <v>9702</v>
+        <v>9639</v>
       </c>
     </row>
     <row r="46">
@@ -756,7 +756,7 @@
         <v>12</v>
       </c>
       <c r="D46" t="n">
-        <v>4930</v>
+        <v>7755</v>
       </c>
     </row>
     <row r="47">
@@ -770,7 +770,7 @@
         <v>15</v>
       </c>
       <c r="D47" t="n">
-        <v>4848</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="48">
@@ -784,7 +784,7 @@
         <v>17</v>
       </c>
       <c r="D48" t="n">
-        <v>6209</v>
+        <v>10910</v>
       </c>
     </row>
     <row r="49">
@@ -798,7 +798,7 @@
         <v>19</v>
       </c>
       <c r="D49" t="n">
-        <v>10916</v>
+        <v>7025</v>
       </c>
     </row>
     <row r="50">
@@ -812,7 +812,7 @@
         <v>6</v>
       </c>
       <c r="D50" t="n">
-        <v>8639</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="51">
@@ -826,7 +826,7 @@
         <v>9</v>
       </c>
       <c r="D51" t="n">
-        <v>5501</v>
+        <v>10768</v>
       </c>
     </row>
     <row r="52">
@@ -840,7 +840,7 @@
         <v>12</v>
       </c>
       <c r="D52" t="n">
-        <v>7856</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="53">
@@ -854,7 +854,7 @@
         <v>15</v>
       </c>
       <c r="D53" t="n">
-        <v>2126</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="54">
@@ -868,7 +868,7 @@
         <v>17</v>
       </c>
       <c r="D54" t="n">
-        <v>1069</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="55">
@@ -882,7 +882,7 @@
         <v>19</v>
       </c>
       <c r="D55" t="n">
-        <v>3691</v>
+        <v>4873</v>
       </c>
     </row>
     <row r="56">
@@ -896,7 +896,7 @@
         <v>6</v>
       </c>
       <c r="D56" t="n">
-        <v>5720</v>
+        <v>8622</v>
       </c>
     </row>
     <row r="57">
@@ -910,7 +910,7 @@
         <v>9</v>
       </c>
       <c r="D57" t="n">
-        <v>7859</v>
+        <v>8515</v>
       </c>
     </row>
     <row r="58">
@@ -924,7 +924,7 @@
         <v>12</v>
       </c>
       <c r="D58" t="n">
-        <v>1198</v>
+        <v>5982</v>
       </c>
     </row>
     <row r="59">
@@ -938,7 +938,7 @@
         <v>15</v>
       </c>
       <c r="D59" t="n">
-        <v>7896</v>
+        <v>7605</v>
       </c>
     </row>
     <row r="60">
@@ -952,7 +952,7 @@
         <v>17</v>
       </c>
       <c r="D60" t="n">
-        <v>7301</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="61">
@@ -966,7 +966,7 @@
         <v>19</v>
       </c>
       <c r="D61" t="n">
-        <v>2083</v>
+        <v>5220</v>
       </c>
     </row>
     <row r="62">
@@ -980,7 +980,7 @@
         <v>6</v>
       </c>
       <c r="D62" t="n">
-        <v>2567</v>
+        <v>5070</v>
       </c>
     </row>
     <row r="63">
@@ -994,7 +994,7 @@
         <v>9</v>
       </c>
       <c r="D63" t="n">
-        <v>10864</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="64">
@@ -1008,7 +1008,7 @@
         <v>12</v>
       </c>
       <c r="D64" t="n">
-        <v>8798</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="65">
@@ -1022,7 +1022,7 @@
         <v>15</v>
       </c>
       <c r="D65" t="n">
-        <v>1316</v>
+        <v>9338</v>
       </c>
     </row>
     <row r="66">
@@ -1036,7 +1036,7 @@
         <v>17</v>
       </c>
       <c r="D66" t="n">
-        <v>7382</v>
+        <v>10862</v>
       </c>
     </row>
     <row r="67">
@@ -1050,7 +1050,7 @@
         <v>19</v>
       </c>
       <c r="D67" t="n">
-        <v>4241</v>
+        <v>4059</v>
       </c>
     </row>
     <row r="68">
@@ -1064,7 +1064,7 @@
         <v>6</v>
       </c>
       <c r="D68" t="n">
-        <v>4307</v>
+        <v>8648</v>
       </c>
     </row>
     <row r="69">
@@ -1078,7 +1078,7 @@
         <v>9</v>
       </c>
       <c r="D69" t="n">
-        <v>8170</v>
+        <v>10548</v>
       </c>
     </row>
     <row r="70">
@@ -1092,7 +1092,7 @@
         <v>12</v>
       </c>
       <c r="D70" t="n">
-        <v>9672</v>
+        <v>4558</v>
       </c>
     </row>
     <row r="71">
@@ -1106,7 +1106,7 @@
         <v>15</v>
       </c>
       <c r="D71" t="n">
-        <v>3079</v>
+        <v>10009</v>
       </c>
     </row>
     <row r="72">
@@ -1120,7 +1120,7 @@
         <v>17</v>
       </c>
       <c r="D72" t="n">
-        <v>10126</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="73">
@@ -1134,7 +1134,7 @@
         <v>19</v>
       </c>
       <c r="D73" t="n">
-        <v>10670</v>
+        <v>3182</v>
       </c>
     </row>
     <row r="74">
@@ -1148,7 +1148,7 @@
         <v>6</v>
       </c>
       <c r="D74" t="n">
-        <v>3113</v>
+        <v>6251</v>
       </c>
     </row>
     <row r="75">
@@ -1162,7 +1162,7 @@
         <v>9</v>
       </c>
       <c r="D75" t="n">
-        <v>3292</v>
+        <v>9975</v>
       </c>
     </row>
     <row r="76">
@@ -1176,7 +1176,7 @@
         <v>12</v>
       </c>
       <c r="D76" t="n">
-        <v>1786</v>
+        <v>10328</v>
       </c>
     </row>
     <row r="77">
@@ -1190,7 +1190,7 @@
         <v>15</v>
       </c>
       <c r="D77" t="n">
-        <v>4419</v>
+        <v>9524</v>
       </c>
     </row>
     <row r="78">
@@ -1204,7 +1204,7 @@
         <v>17</v>
       </c>
       <c r="D78" t="n">
-        <v>10710</v>
+        <v>7045</v>
       </c>
     </row>
     <row r="79">
@@ -1218,7 +1218,7 @@
         <v>19</v>
       </c>
       <c r="D79" t="n">
-        <v>5347</v>
+        <v>3127</v>
       </c>
     </row>
     <row r="80">
@@ -1232,7 +1232,7 @@
         <v>6</v>
       </c>
       <c r="D80" t="n">
-        <v>3562</v>
+        <v>10813</v>
       </c>
     </row>
     <row r="81">
@@ -1246,7 +1246,7 @@
         <v>9</v>
       </c>
       <c r="D81" t="n">
-        <v>9929</v>
+        <v>3837</v>
       </c>
     </row>
     <row r="82">
@@ -1274,7 +1274,7 @@
         <v>15</v>
       </c>
       <c r="D83" t="n">
-        <v>10798</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>17</v>
       </c>
       <c r="D84" t="n">
-        <v>9871</v>
+        <v>5390</v>
       </c>
     </row>
     <row r="85">
@@ -1302,7 +1302,7 @@
         <v>19</v>
       </c>
       <c r="D85" t="n">
-        <v>10100</v>
+        <v>3858</v>
       </c>
     </row>
     <row r="86">
@@ -1316,7 +1316,7 @@
         <v>6</v>
       </c>
       <c r="D86" t="n">
-        <v>5893</v>
+        <v>9359</v>
       </c>
     </row>
     <row r="87">
@@ -1330,7 +1330,7 @@
         <v>9</v>
       </c>
       <c r="D87" t="n">
-        <v>1116</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="88">
@@ -1344,7 +1344,7 @@
         <v>12</v>
       </c>
       <c r="D88" t="n">
-        <v>4277</v>
+        <v>10192</v>
       </c>
     </row>
     <row r="89">
@@ -1358,7 +1358,7 @@
         <v>15</v>
       </c>
       <c r="D89" t="n">
-        <v>2350</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="90">
@@ -1372,7 +1372,7 @@
         <v>17</v>
       </c>
       <c r="D90" t="n">
-        <v>5087</v>
+        <v>3094</v>
       </c>
     </row>
     <row r="91">
@@ -1386,7 +1386,7 @@
         <v>19</v>
       </c>
       <c r="D91" t="n">
-        <v>7236</v>
+        <v>5775</v>
       </c>
     </row>
     <row r="92">
@@ -1400,7 +1400,7 @@
         <v>6</v>
       </c>
       <c r="D92" t="n">
-        <v>7795</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="93">
@@ -1414,7 +1414,7 @@
         <v>9</v>
       </c>
       <c r="D93" t="n">
-        <v>2411</v>
+        <v>8800</v>
       </c>
     </row>
     <row r="94">
@@ -1428,7 +1428,7 @@
         <v>12</v>
       </c>
       <c r="D94" t="n">
-        <v>9087</v>
+        <v>10908</v>
       </c>
     </row>
     <row r="95">
@@ -1442,7 +1442,7 @@
         <v>15</v>
       </c>
       <c r="D95" t="n">
-        <v>3818</v>
+        <v>4974</v>
       </c>
     </row>
     <row r="96">
@@ -1456,7 +1456,7 @@
         <v>17</v>
       </c>
       <c r="D96" t="n">
-        <v>3410</v>
+        <v>5780</v>
       </c>
     </row>
     <row r="97">
@@ -1470,7 +1470,7 @@
         <v>19</v>
       </c>
       <c r="D97" t="n">
-        <v>3643</v>
+        <v>10965</v>
       </c>
     </row>
     <row r="98">
@@ -1484,7 +1484,7 @@
         <v>6</v>
       </c>
       <c r="D98" t="n">
-        <v>10507</v>
+        <v>4430</v>
       </c>
     </row>
     <row r="99">
@@ -1498,7 +1498,7 @@
         <v>9</v>
       </c>
       <c r="D99" t="n">
-        <v>10667</v>
+        <v>10771</v>
       </c>
     </row>
     <row r="100">
@@ -1512,7 +1512,7 @@
         <v>12</v>
       </c>
       <c r="D100" t="n">
-        <v>3527</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="101">
@@ -1526,7 +1526,7 @@
         <v>15</v>
       </c>
       <c r="D101" t="n">
-        <v>7236</v>
+        <v>9251</v>
       </c>
     </row>
     <row r="102">
@@ -1540,7 +1540,7 @@
         <v>17</v>
       </c>
       <c r="D102" t="n">
-        <v>2800</v>
+        <v>10369</v>
       </c>
     </row>
     <row r="103">
@@ -1554,7 +1554,7 @@
         <v>19</v>
       </c>
       <c r="D103" t="n">
-        <v>8954</v>
+        <v>3735</v>
       </c>
     </row>
     <row r="104">
@@ -1568,7 +1568,7 @@
         <v>6</v>
       </c>
       <c r="D104" t="n">
-        <v>3362</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="105">
@@ -1582,7 +1582,7 @@
         <v>9</v>
       </c>
       <c r="D105" t="n">
-        <v>6734</v>
+        <v>8272</v>
       </c>
     </row>
     <row r="106">
@@ -1596,7 +1596,7 @@
         <v>12</v>
       </c>
       <c r="D106" t="n">
-        <v>5619</v>
+        <v>4777</v>
       </c>
     </row>
     <row r="107">
@@ -1610,7 +1610,7 @@
         <v>15</v>
       </c>
       <c r="D107" t="n">
-        <v>3944</v>
+        <v>5924</v>
       </c>
     </row>
     <row r="108">
@@ -1624,7 +1624,7 @@
         <v>17</v>
       </c>
       <c r="D108" t="n">
-        <v>2811</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="109">
@@ -1638,7 +1638,7 @@
         <v>19</v>
       </c>
       <c r="D109" t="n">
-        <v>7829</v>
+        <v>10463</v>
       </c>
     </row>
     <row r="110">
@@ -1652,7 +1652,7 @@
         <v>6</v>
       </c>
       <c r="D110" t="n">
-        <v>10905</v>
+        <v>5856</v>
       </c>
     </row>
     <row r="111">
@@ -1666,7 +1666,7 @@
         <v>9</v>
       </c>
       <c r="D111" t="n">
-        <v>7378</v>
+        <v>4961</v>
       </c>
     </row>
     <row r="112">
@@ -1680,7 +1680,7 @@
         <v>12</v>
       </c>
       <c r="D112" t="n">
-        <v>4510</v>
+        <v>6966</v>
       </c>
     </row>
     <row r="113">
@@ -1694,7 +1694,7 @@
         <v>15</v>
       </c>
       <c r="D113" t="n">
-        <v>3963</v>
+        <v>4508</v>
       </c>
     </row>
     <row r="114">
@@ -1708,7 +1708,7 @@
         <v>17</v>
       </c>
       <c r="D114" t="n">
-        <v>9106</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="115">
@@ -1722,7 +1722,7 @@
         <v>19</v>
       </c>
       <c r="D115" t="n">
-        <v>4224</v>
+        <v>9479</v>
       </c>
     </row>
     <row r="116">
@@ -1736,7 +1736,7 @@
         <v>6</v>
       </c>
       <c r="D116" t="n">
-        <v>10170</v>
+        <v>5309</v>
       </c>
     </row>
     <row r="117">
@@ -1750,7 +1750,7 @@
         <v>9</v>
       </c>
       <c r="D117" t="n">
-        <v>4505</v>
+        <v>6447</v>
       </c>
     </row>
     <row r="118">
@@ -1764,7 +1764,7 @@
         <v>12</v>
       </c>
       <c r="D118" t="n">
-        <v>7483</v>
+        <v>3009</v>
       </c>
     </row>
     <row r="119">
@@ -1778,7 +1778,7 @@
         <v>15</v>
       </c>
       <c r="D119" t="n">
-        <v>5888</v>
+        <v>5441</v>
       </c>
     </row>
     <row r="120">
@@ -1792,7 +1792,7 @@
         <v>17</v>
       </c>
       <c r="D120" t="n">
-        <v>6085</v>
+        <v>9388</v>
       </c>
     </row>
     <row r="121">
@@ -1806,7 +1806,7 @@
         <v>19</v>
       </c>
       <c r="D121" t="n">
-        <v>4019</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="122">
@@ -1820,7 +1820,7 @@
         <v>6</v>
       </c>
       <c r="D122" t="n">
-        <v>4293</v>
+        <v>8275</v>
       </c>
     </row>
     <row r="123">
@@ -1834,7 +1834,7 @@
         <v>9</v>
       </c>
       <c r="D123" t="n">
-        <v>4481</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="124">
@@ -1848,7 +1848,7 @@
         <v>12</v>
       </c>
       <c r="D124" t="n">
-        <v>9920</v>
+        <v>4939</v>
       </c>
     </row>
     <row r="125">
@@ -1862,7 +1862,7 @@
         <v>15</v>
       </c>
       <c r="D125" t="n">
-        <v>4042</v>
+        <v>10048</v>
       </c>
     </row>
     <row r="126">
@@ -1876,7 +1876,7 @@
         <v>17</v>
       </c>
       <c r="D126" t="n">
-        <v>2057</v>
+        <v>3474</v>
       </c>
     </row>
     <row r="127">
@@ -1890,7 +1890,7 @@
         <v>19</v>
       </c>
       <c r="D127" t="n">
-        <v>3362</v>
+        <v>7693</v>
       </c>
     </row>
     <row r="128">
@@ -1904,7 +1904,7 @@
         <v>6</v>
       </c>
       <c r="D128" t="n">
-        <v>9107</v>
+        <v>9120</v>
       </c>
     </row>
     <row r="129">
@@ -1918,7 +1918,7 @@
         <v>9</v>
       </c>
       <c r="D129" t="n">
-        <v>2522</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="130">
@@ -1932,7 +1932,7 @@
         <v>12</v>
       </c>
       <c r="D130" t="n">
-        <v>2999</v>
+        <v>4317</v>
       </c>
     </row>
     <row r="131">
@@ -1946,7 +1946,7 @@
         <v>15</v>
       </c>
       <c r="D131" t="n">
-        <v>3886</v>
+        <v>9087</v>
       </c>
     </row>
     <row r="132">
@@ -1960,7 +1960,7 @@
         <v>17</v>
       </c>
       <c r="D132" t="n">
-        <v>1710</v>
+        <v>4147</v>
       </c>
     </row>
     <row r="133">
@@ -1974,7 +1974,7 @@
         <v>19</v>
       </c>
       <c r="D133" t="n">
-        <v>10380</v>
+        <v>3208</v>
       </c>
     </row>
     <row r="134">
@@ -1988,7 +1988,7 @@
         <v>6</v>
       </c>
       <c r="D134" t="n">
-        <v>3835</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="135">
@@ -2002,7 +2002,7 @@
         <v>9</v>
       </c>
       <c r="D135" t="n">
-        <v>3643</v>
+        <v>4811</v>
       </c>
     </row>
     <row r="136">
@@ -2016,7 +2016,7 @@
         <v>12</v>
       </c>
       <c r="D136" t="n">
-        <v>6683</v>
+        <v>6825</v>
       </c>
     </row>
     <row r="137">
@@ -2030,7 +2030,7 @@
         <v>15</v>
       </c>
       <c r="D137" t="n">
-        <v>6199</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="138">
@@ -2044,7 +2044,7 @@
         <v>17</v>
       </c>
       <c r="D138" t="n">
-        <v>5704</v>
+        <v>5915</v>
       </c>
     </row>
     <row r="139">
@@ -2058,7 +2058,7 @@
         <v>19</v>
       </c>
       <c r="D139" t="n">
-        <v>4771</v>
+        <v>4380</v>
       </c>
     </row>
     <row r="140">
@@ -2072,7 +2072,7 @@
         <v>6</v>
       </c>
       <c r="D140" t="n">
-        <v>8808</v>
+        <v>4316</v>
       </c>
     </row>
     <row r="141">
@@ -2086,7 +2086,7 @@
         <v>9</v>
       </c>
       <c r="D141" t="n">
-        <v>9240</v>
+        <v>4063</v>
       </c>
     </row>
     <row r="142">
@@ -2100,7 +2100,7 @@
         <v>12</v>
       </c>
       <c r="D142" t="n">
-        <v>5973</v>
+        <v>4130</v>
       </c>
     </row>
     <row r="143">
@@ -2114,7 +2114,7 @@
         <v>15</v>
       </c>
       <c r="D143" t="n">
-        <v>5995</v>
+        <v>10677</v>
       </c>
     </row>
     <row r="144">
@@ -2128,7 +2128,7 @@
         <v>17</v>
       </c>
       <c r="D144" t="n">
-        <v>1319</v>
+        <v>8379</v>
       </c>
     </row>
     <row r="145">
@@ -2142,7 +2142,7 @@
         <v>19</v>
       </c>
       <c r="D145" t="n">
-        <v>2597</v>
+        <v>6278</v>
       </c>
     </row>
     <row r="146">
@@ -2156,7 +2156,7 @@
         <v>6</v>
       </c>
       <c r="D146" t="n">
-        <v>7616</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="147">
@@ -2170,7 +2170,7 @@
         <v>9</v>
       </c>
       <c r="D147" t="n">
-        <v>3013</v>
+        <v>3149</v>
       </c>
     </row>
     <row r="148">
@@ -2184,7 +2184,7 @@
         <v>12</v>
       </c>
       <c r="D148" t="n">
-        <v>8694</v>
+        <v>6738</v>
       </c>
     </row>
     <row r="149">
@@ -2198,7 +2198,7 @@
         <v>15</v>
       </c>
       <c r="D149" t="n">
-        <v>5483</v>
+        <v>10066</v>
       </c>
     </row>
     <row r="150">
@@ -2212,7 +2212,7 @@
         <v>17</v>
       </c>
       <c r="D150" t="n">
-        <v>10626</v>
+        <v>6451</v>
       </c>
     </row>
     <row r="151">
@@ -2226,7 +2226,7 @@
         <v>19</v>
       </c>
       <c r="D151" t="n">
-        <v>9229</v>
+        <v>10731</v>
       </c>
     </row>
     <row r="152">
@@ -2240,7 +2240,7 @@
         <v>6</v>
       </c>
       <c r="D152" t="n">
-        <v>6242</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="153">
@@ -2254,7 +2254,7 @@
         <v>9</v>
       </c>
       <c r="D153" t="n">
-        <v>9246</v>
+        <v>8354</v>
       </c>
     </row>
     <row r="154">
@@ -2268,7 +2268,7 @@
         <v>12</v>
       </c>
       <c r="D154" t="n">
-        <v>9482</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="155">
@@ -2282,7 +2282,7 @@
         <v>15</v>
       </c>
       <c r="D155" t="n">
-        <v>4059</v>
+        <v>5072</v>
       </c>
     </row>
     <row r="156">
@@ -2296,7 +2296,7 @@
         <v>17</v>
       </c>
       <c r="D156" t="n">
-        <v>6392</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="157">
@@ -2310,7 +2310,7 @@
         <v>19</v>
       </c>
       <c r="D157" t="n">
-        <v>6503</v>
+        <v>10509</v>
       </c>
     </row>
     <row r="158">
@@ -2324,7 +2324,7 @@
         <v>6</v>
       </c>
       <c r="D158" t="n">
-        <v>4313</v>
+        <v>3369</v>
       </c>
     </row>
     <row r="159">
@@ -2338,7 +2338,7 @@
         <v>9</v>
       </c>
       <c r="D159" t="n">
-        <v>2286</v>
+        <v>10727</v>
       </c>
     </row>
     <row r="160">
@@ -2352,7 +2352,7 @@
         <v>12</v>
       </c>
       <c r="D160" t="n">
-        <v>2307</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="161">
@@ -2366,7 +2366,7 @@
         <v>15</v>
       </c>
       <c r="D161" t="n">
-        <v>7282</v>
+        <v>7060</v>
       </c>
     </row>
     <row r="162">
@@ -2380,7 +2380,7 @@
         <v>17</v>
       </c>
       <c r="D162" t="n">
-        <v>7955</v>
+        <v>5875</v>
       </c>
     </row>
     <row r="163">
@@ -2394,7 +2394,7 @@
         <v>19</v>
       </c>
       <c r="D163" t="n">
-        <v>3468</v>
+        <v>8280</v>
       </c>
     </row>
     <row r="164">
@@ -2408,7 +2408,7 @@
         <v>6</v>
       </c>
       <c r="D164" t="n">
-        <v>6316</v>
+        <v>9192</v>
       </c>
     </row>
     <row r="165">
@@ -2422,7 +2422,7 @@
         <v>9</v>
       </c>
       <c r="D165" t="n">
-        <v>7109</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="166">
@@ -2436,7 +2436,7 @@
         <v>12</v>
       </c>
       <c r="D166" t="n">
-        <v>8886</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="167">
@@ -2450,7 +2450,7 @@
         <v>15</v>
       </c>
       <c r="D167" t="n">
-        <v>8632</v>
+        <v>4617</v>
       </c>
     </row>
     <row r="168">
@@ -2464,7 +2464,7 @@
         <v>17</v>
       </c>
       <c r="D168" t="n">
-        <v>8030</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="169">
@@ -2478,7 +2478,7 @@
         <v>19</v>
       </c>
       <c r="D169" t="n">
-        <v>6429</v>
+        <v>7957</v>
       </c>
     </row>
     <row r="170">
@@ -2492,7 +2492,7 @@
         <v>6</v>
       </c>
       <c r="D170" t="n">
-        <v>6037</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="171">
@@ -2506,7 +2506,7 @@
         <v>9</v>
       </c>
       <c r="D171" t="n">
-        <v>2834</v>
+        <v>3027</v>
       </c>
     </row>
     <row r="172">
@@ -2520,7 +2520,7 @@
         <v>12</v>
       </c>
       <c r="D172" t="n">
-        <v>7476</v>
+        <v>4310</v>
       </c>
     </row>
     <row r="173">
@@ -2534,7 +2534,7 @@
         <v>15</v>
       </c>
       <c r="D173" t="n">
-        <v>6244</v>
+        <v>7571</v>
       </c>
     </row>
     <row r="174">
@@ -2548,7 +2548,7 @@
         <v>17</v>
       </c>
       <c r="D174" t="n">
-        <v>9123</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="175">
@@ -2562,7 +2562,7 @@
         <v>19</v>
       </c>
       <c r="D175" t="n">
-        <v>1110</v>
+        <v>8406</v>
       </c>
     </row>
     <row r="176">
@@ -2576,7 +2576,7 @@
         <v>6</v>
       </c>
       <c r="D176" t="n">
-        <v>5587</v>
+        <v>4989</v>
       </c>
     </row>
     <row r="177">
@@ -2590,7 +2590,7 @@
         <v>9</v>
       </c>
       <c r="D177" t="n">
-        <v>7824</v>
+        <v>9200</v>
       </c>
     </row>
     <row r="178">
@@ -2604,7 +2604,7 @@
         <v>12</v>
       </c>
       <c r="D178" t="n">
-        <v>7585</v>
+        <v>4419</v>
       </c>
     </row>
     <row r="179">
@@ -2618,7 +2618,7 @@
         <v>15</v>
       </c>
       <c r="D179" t="n">
-        <v>3655</v>
+        <v>5961</v>
       </c>
     </row>
     <row r="180">
@@ -2632,7 +2632,7 @@
         <v>17</v>
       </c>
       <c r="D180" t="n">
-        <v>9060</v>
+        <v>8245</v>
       </c>
     </row>
     <row r="181">
@@ -2646,7 +2646,7 @@
         <v>19</v>
       </c>
       <c r="D181" t="n">
-        <v>8321</v>
+        <v>8958</v>
       </c>
     </row>
     <row r="182">
@@ -2660,7 +2660,7 @@
         <v>6</v>
       </c>
       <c r="D182" t="n">
-        <v>5364</v>
+        <v>7144</v>
       </c>
     </row>
     <row r="183">
@@ -2674,7 +2674,7 @@
         <v>9</v>
       </c>
       <c r="D183" t="n">
-        <v>8220</v>
+        <v>10522</v>
       </c>
     </row>
     <row r="184">
@@ -2688,7 +2688,7 @@
         <v>12</v>
       </c>
       <c r="D184" t="n">
-        <v>8885</v>
+        <v>3663</v>
       </c>
     </row>
     <row r="185">
@@ -2702,7 +2702,7 @@
         <v>15</v>
       </c>
       <c r="D185" t="n">
-        <v>7474</v>
+        <v>9311</v>
       </c>
     </row>
     <row r="186">
@@ -2716,7 +2716,7 @@
         <v>17</v>
       </c>
       <c r="D186" t="n">
-        <v>10809</v>
+        <v>6681</v>
       </c>
     </row>
     <row r="187">
@@ -2730,7 +2730,7 @@
         <v>19</v>
       </c>
       <c r="D187" t="n">
-        <v>2545</v>
+        <v>9862</v>
       </c>
     </row>
     <row r="188">
@@ -2744,7 +2744,7 @@
         <v>6</v>
       </c>
       <c r="D188" t="n">
-        <v>7608</v>
+        <v>10756</v>
       </c>
     </row>
     <row r="189">
@@ -2758,7 +2758,7 @@
         <v>9</v>
       </c>
       <c r="D189" t="n">
-        <v>4557</v>
+        <v>4769</v>
       </c>
     </row>
     <row r="190">
@@ -2772,7 +2772,7 @@
         <v>12</v>
       </c>
       <c r="D190" t="n">
-        <v>2649</v>
+        <v>5859</v>
       </c>
     </row>
     <row r="191">
@@ -2786,7 +2786,7 @@
         <v>15</v>
       </c>
       <c r="D191" t="n">
-        <v>1225</v>
+        <v>4219</v>
       </c>
     </row>
     <row r="192">
@@ -2800,7 +2800,7 @@
         <v>17</v>
       </c>
       <c r="D192" t="n">
-        <v>5121</v>
+        <v>8178</v>
       </c>
     </row>
     <row r="193">
@@ -2814,7 +2814,7 @@
         <v>19</v>
       </c>
       <c r="D193" t="n">
-        <v>8672</v>
+        <v>5420</v>
       </c>
     </row>
     <row r="194">
@@ -2828,7 +2828,7 @@
         <v>6</v>
       </c>
       <c r="D194" t="n">
-        <v>1007</v>
+        <v>8451</v>
       </c>
     </row>
     <row r="195">
@@ -2842,7 +2842,7 @@
         <v>9</v>
       </c>
       <c r="D195" t="n">
-        <v>10300</v>
+        <v>7729</v>
       </c>
     </row>
     <row r="196">
@@ -2856,7 +2856,7 @@
         <v>12</v>
       </c>
       <c r="D196" t="n">
-        <v>9901</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="197">
@@ -2870,7 +2870,7 @@
         <v>15</v>
       </c>
       <c r="D197" t="n">
-        <v>2615</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="198">
@@ -2884,7 +2884,7 @@
         <v>17</v>
       </c>
       <c r="D198" t="n">
-        <v>4767</v>
+        <v>4278</v>
       </c>
     </row>
     <row r="199">
@@ -2898,7 +2898,7 @@
         <v>19</v>
       </c>
       <c r="D199" t="n">
-        <v>8478</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="200">
@@ -2912,7 +2912,7 @@
         <v>6</v>
       </c>
       <c r="D200" t="n">
-        <v>5418</v>
+        <v>8907</v>
       </c>
     </row>
     <row r="201">
@@ -2926,7 +2926,7 @@
         <v>9</v>
       </c>
       <c r="D201" t="n">
-        <v>7254</v>
+        <v>5162</v>
       </c>
     </row>
     <row r="202">
@@ -2940,7 +2940,7 @@
         <v>12</v>
       </c>
       <c r="D202" t="n">
-        <v>2898</v>
+        <v>7186</v>
       </c>
     </row>
     <row r="203">
@@ -2954,7 +2954,7 @@
         <v>15</v>
       </c>
       <c r="D203" t="n">
-        <v>4541</v>
+        <v>4516</v>
       </c>
     </row>
     <row r="204">
@@ -2968,7 +2968,7 @@
         <v>17</v>
       </c>
       <c r="D204" t="n">
-        <v>7915</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="205">
@@ -2982,7 +2982,7 @@
         <v>19</v>
       </c>
       <c r="D205" t="n">
-        <v>6382</v>
+        <v>4179</v>
       </c>
     </row>
     <row r="206">
@@ -2996,7 +2996,7 @@
         <v>6</v>
       </c>
       <c r="D206" t="n">
-        <v>5789</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="207">
@@ -3010,7 +3010,7 @@
         <v>9</v>
       </c>
       <c r="D207" t="n">
-        <v>9716</v>
+        <v>7416</v>
       </c>
     </row>
     <row r="208">
@@ -3024,7 +3024,7 @@
         <v>12</v>
       </c>
       <c r="D208" t="n">
-        <v>8660</v>
+        <v>9666</v>
       </c>
     </row>
     <row r="209">
@@ -3038,7 +3038,7 @@
         <v>15</v>
       </c>
       <c r="D209" t="n">
-        <v>7196</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="210">
@@ -3052,7 +3052,7 @@
         <v>17</v>
       </c>
       <c r="D210" t="n">
-        <v>8399</v>
+        <v>4158</v>
       </c>
     </row>
     <row r="211">
@@ -3066,7 +3066,7 @@
         <v>19</v>
       </c>
       <c r="D211" t="n">
-        <v>8095</v>
+        <v>7428</v>
       </c>
     </row>
     <row r="212">
@@ -3080,7 +3080,7 @@
         <v>6</v>
       </c>
       <c r="D212" t="n">
-        <v>8364</v>
+        <v>9061</v>
       </c>
     </row>
     <row r="213">
@@ -3094,7 +3094,7 @@
         <v>9</v>
       </c>
       <c r="D213" t="n">
-        <v>6367</v>
+        <v>8439</v>
       </c>
     </row>
     <row r="214">
@@ -3108,7 +3108,7 @@
         <v>12</v>
       </c>
       <c r="D214" t="n">
-        <v>7768</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="215">
@@ -3122,7 +3122,7 @@
         <v>15</v>
       </c>
       <c r="D215" t="n">
-        <v>8924</v>
+        <v>7904</v>
       </c>
     </row>
     <row r="216">
@@ -3136,7 +3136,7 @@
         <v>17</v>
       </c>
       <c r="D216" t="n">
-        <v>1848</v>
+        <v>4947</v>
       </c>
     </row>
     <row r="217">
@@ -3150,7 +3150,7 @@
         <v>19</v>
       </c>
       <c r="D217" t="n">
-        <v>3364</v>
+        <v>7642</v>
       </c>
     </row>
     <row r="218">
@@ -3164,7 +3164,7 @@
         <v>6</v>
       </c>
       <c r="D218" t="n">
-        <v>8718</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="219">
@@ -3178,7 +3178,7 @@
         <v>9</v>
       </c>
       <c r="D219" t="n">
-        <v>1559</v>
+        <v>3266</v>
       </c>
     </row>
     <row r="220">
@@ -3192,7 +3192,7 @@
         <v>12</v>
       </c>
       <c r="D220" t="n">
-        <v>5973</v>
+        <v>3203</v>
       </c>
     </row>
     <row r="221">
@@ -3206,7 +3206,7 @@
         <v>15</v>
       </c>
       <c r="D221" t="n">
-        <v>2139</v>
+        <v>3115</v>
       </c>
     </row>
     <row r="222">
@@ -3220,7 +3220,7 @@
         <v>17</v>
       </c>
       <c r="D222" t="n">
-        <v>8354</v>
+        <v>6182</v>
       </c>
     </row>
     <row r="223">
@@ -3234,7 +3234,7 @@
         <v>19</v>
       </c>
       <c r="D223" t="n">
-        <v>3293</v>
+        <v>4492</v>
       </c>
     </row>
     <row r="224">
@@ -3248,7 +3248,7 @@
         <v>6</v>
       </c>
       <c r="D224" t="n">
-        <v>8544</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="225">
@@ -3262,7 +3262,7 @@
         <v>9</v>
       </c>
       <c r="D225" t="n">
-        <v>6804</v>
+        <v>5416</v>
       </c>
     </row>
     <row r="226">
@@ -3276,7 +3276,7 @@
         <v>12</v>
       </c>
       <c r="D226" t="n">
-        <v>7955</v>
+        <v>10723</v>
       </c>
     </row>
     <row r="227">
@@ -3290,7 +3290,7 @@
         <v>15</v>
       </c>
       <c r="D227" t="n">
-        <v>8409</v>
+        <v>10623</v>
       </c>
     </row>
     <row r="228">
@@ -3304,7 +3304,7 @@
         <v>17</v>
       </c>
       <c r="D228" t="n">
-        <v>5215</v>
+        <v>10192</v>
       </c>
     </row>
     <row r="229">
@@ -3318,7 +3318,7 @@
         <v>19</v>
       </c>
       <c r="D229" t="n">
-        <v>1939</v>
+        <v>8981</v>
       </c>
     </row>
     <row r="230">
@@ -3332,7 +3332,7 @@
         <v>6</v>
       </c>
       <c r="D230" t="n">
-        <v>8858</v>
+        <v>10400</v>
       </c>
     </row>
     <row r="231">
@@ -3346,7 +3346,7 @@
         <v>9</v>
       </c>
       <c r="D231" t="n">
-        <v>7512</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="232">
@@ -3360,7 +3360,7 @@
         <v>12</v>
       </c>
       <c r="D232" t="n">
-        <v>7734</v>
+        <v>8117</v>
       </c>
     </row>
     <row r="233">
@@ -3374,7 +3374,7 @@
         <v>15</v>
       </c>
       <c r="D233" t="n">
-        <v>10171</v>
+        <v>6198</v>
       </c>
     </row>
     <row r="234">
@@ -3388,7 +3388,7 @@
         <v>17</v>
       </c>
       <c r="D234" t="n">
-        <v>5994</v>
+        <v>9629</v>
       </c>
     </row>
     <row r="235">
@@ -3402,7 +3402,7 @@
         <v>19</v>
       </c>
       <c r="D235" t="n">
-        <v>6057</v>
+        <v>5290</v>
       </c>
     </row>
     <row r="236">
@@ -3416,7 +3416,7 @@
         <v>6</v>
       </c>
       <c r="D236" t="n">
-        <v>5813</v>
+        <v>6383</v>
       </c>
     </row>
     <row r="237">
@@ -3430,7 +3430,7 @@
         <v>9</v>
       </c>
       <c r="D237" t="n">
-        <v>5646</v>
+        <v>10656</v>
       </c>
     </row>
     <row r="238">
@@ -3444,7 +3444,7 @@
         <v>12</v>
       </c>
       <c r="D238" t="n">
-        <v>8665</v>
+        <v>7497</v>
       </c>
     </row>
     <row r="239">
@@ -3458,7 +3458,7 @@
         <v>15</v>
       </c>
       <c r="D239" t="n">
-        <v>9525</v>
+        <v>7654</v>
       </c>
     </row>
     <row r="240">
@@ -3472,7 +3472,7 @@
         <v>17</v>
       </c>
       <c r="D240" t="n">
-        <v>8071</v>
+        <v>10363</v>
       </c>
     </row>
     <row r="241">
@@ -3486,7 +3486,7 @@
         <v>19</v>
       </c>
       <c r="D241" t="n">
-        <v>9639</v>
+        <v>5217</v>
       </c>
     </row>
     <row r="242">
@@ -3500,7 +3500,7 @@
         <v>6</v>
       </c>
       <c r="D242" t="n">
-        <v>5462</v>
+        <v>3365</v>
       </c>
     </row>
     <row r="243">
@@ -3514,7 +3514,7 @@
         <v>9</v>
       </c>
       <c r="D243" t="n">
-        <v>1024</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="244">
@@ -3528,7 +3528,7 @@
         <v>12</v>
       </c>
       <c r="D244" t="n">
-        <v>6981</v>
+        <v>9446</v>
       </c>
     </row>
     <row r="245">
@@ -3542,7 +3542,7 @@
         <v>15</v>
       </c>
       <c r="D245" t="n">
-        <v>5222</v>
+        <v>8937</v>
       </c>
     </row>
     <row r="246">
@@ -3556,7 +3556,7 @@
         <v>17</v>
       </c>
       <c r="D246" t="n">
-        <v>5319</v>
+        <v>4843</v>
       </c>
     </row>
     <row r="247">
@@ -3570,7 +3570,7 @@
         <v>19</v>
       </c>
       <c r="D247" t="n">
-        <v>5291</v>
+        <v>7710</v>
       </c>
     </row>
     <row r="248">
@@ -3584,7 +3584,7 @@
         <v>6</v>
       </c>
       <c r="D248" t="n">
-        <v>10153</v>
+        <v>7234</v>
       </c>
     </row>
     <row r="249">
@@ -3598,7 +3598,7 @@
         <v>9</v>
       </c>
       <c r="D249" t="n">
-        <v>3621</v>
+        <v>10118</v>
       </c>
     </row>
     <row r="250">
@@ -3612,7 +3612,7 @@
         <v>12</v>
       </c>
       <c r="D250" t="n">
-        <v>5724</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="251">
@@ -3626,7 +3626,7 @@
         <v>15</v>
       </c>
       <c r="D251" t="n">
-        <v>4816</v>
+        <v>4128</v>
       </c>
     </row>
     <row r="252">
@@ -3640,7 +3640,7 @@
         <v>17</v>
       </c>
       <c r="D252" t="n">
-        <v>5308</v>
+        <v>9797</v>
       </c>
     </row>
     <row r="253">
@@ -3654,7 +3654,7 @@
         <v>19</v>
       </c>
       <c r="D253" t="n">
-        <v>5575</v>
+        <v>5161</v>
       </c>
     </row>
     <row r="254">
@@ -3668,7 +3668,7 @@
         <v>6</v>
       </c>
       <c r="D254" t="n">
-        <v>1308</v>
+        <v>6785</v>
       </c>
     </row>
     <row r="255">
@@ -3682,7 +3682,7 @@
         <v>9</v>
       </c>
       <c r="D255" t="n">
-        <v>1636</v>
+        <v>6561</v>
       </c>
     </row>
     <row r="256">
@@ -3696,7 +3696,7 @@
         <v>12</v>
       </c>
       <c r="D256" t="n">
-        <v>6126</v>
+        <v>4907</v>
       </c>
     </row>
     <row r="257">
@@ -3710,7 +3710,7 @@
         <v>15</v>
       </c>
       <c r="D257" t="n">
-        <v>8955</v>
+        <v>9038</v>
       </c>
     </row>
     <row r="258">
@@ -3724,7 +3724,7 @@
         <v>17</v>
       </c>
       <c r="D258" t="n">
-        <v>2949</v>
+        <v>5994</v>
       </c>
     </row>
     <row r="259">
@@ -3738,7 +3738,7 @@
         <v>19</v>
       </c>
       <c r="D259" t="n">
-        <v>2408</v>
+        <v>4819</v>
       </c>
     </row>
     <row r="260">
@@ -3752,7 +3752,7 @@
         <v>6</v>
       </c>
       <c r="D260" t="n">
-        <v>3112</v>
+        <v>3586</v>
       </c>
     </row>
     <row r="261">
@@ -3766,7 +3766,7 @@
         <v>9</v>
       </c>
       <c r="D261" t="n">
-        <v>7612</v>
+        <v>9020</v>
       </c>
     </row>
     <row r="262">
@@ -3780,7 +3780,7 @@
         <v>12</v>
       </c>
       <c r="D262" t="n">
-        <v>4133</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="263">
@@ -3794,7 +3794,7 @@
         <v>15</v>
       </c>
       <c r="D263" t="n">
-        <v>10990</v>
+        <v>9060</v>
       </c>
     </row>
     <row r="264">
@@ -3808,7 +3808,7 @@
         <v>17</v>
       </c>
       <c r="D264" t="n">
-        <v>10311</v>
+        <v>5758</v>
       </c>
     </row>
     <row r="265">
@@ -3822,7 +3822,7 @@
         <v>19</v>
       </c>
       <c r="D265" t="n">
-        <v>1515</v>
+        <v>7281</v>
       </c>
     </row>
     <row r="266">
@@ -3836,7 +3836,7 @@
         <v>6</v>
       </c>
       <c r="D266" t="n">
-        <v>7478</v>
+        <v>9501</v>
       </c>
     </row>
     <row r="267">
@@ -3850,7 +3850,7 @@
         <v>9</v>
       </c>
       <c r="D267" t="n">
-        <v>7000</v>
+        <v>9164</v>
       </c>
     </row>
     <row r="268">
@@ -3864,7 +3864,7 @@
         <v>12</v>
       </c>
       <c r="D268" t="n">
-        <v>7485</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="269">
@@ -3878,7 +3878,7 @@
         <v>15</v>
       </c>
       <c r="D269" t="n">
-        <v>2538</v>
+        <v>10796</v>
       </c>
     </row>
     <row r="270">
@@ -3892,7 +3892,7 @@
         <v>17</v>
       </c>
       <c r="D270" t="n">
-        <v>7249</v>
+        <v>4405</v>
       </c>
     </row>
     <row r="271">
@@ -3906,7 +3906,7 @@
         <v>19</v>
       </c>
       <c r="D271" t="n">
-        <v>7777</v>
+        <v>4231</v>
       </c>
     </row>
     <row r="272">
@@ -3920,7 +3920,7 @@
         <v>6</v>
       </c>
       <c r="D272" t="n">
-        <v>9819</v>
+        <v>4716</v>
       </c>
     </row>
     <row r="273">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="D273" t="n">
-        <v>4496</v>
+        <v>6429</v>
       </c>
     </row>
     <row r="274">
@@ -3948,7 +3948,7 @@
         <v>12</v>
       </c>
       <c r="D274" t="n">
-        <v>4224</v>
+        <v>5729</v>
       </c>
     </row>
     <row r="275">
@@ -3962,7 +3962,7 @@
         <v>15</v>
       </c>
       <c r="D275" t="n">
-        <v>6064</v>
+        <v>3797</v>
       </c>
     </row>
     <row r="276">
@@ -3976,7 +3976,7 @@
         <v>17</v>
       </c>
       <c r="D276" t="n">
-        <v>9418</v>
+        <v>4284</v>
       </c>
     </row>
     <row r="277">
@@ -3990,7 +3990,7 @@
         <v>19</v>
       </c>
       <c r="D277" t="n">
-        <v>10476</v>
+        <v>10142</v>
       </c>
     </row>
     <row r="278">
@@ -4004,7 +4004,7 @@
         <v>6</v>
       </c>
       <c r="D278" t="n">
-        <v>3782</v>
+        <v>8505</v>
       </c>
     </row>
     <row r="279">
@@ -4018,7 +4018,7 @@
         <v>9</v>
       </c>
       <c r="D279" t="n">
-        <v>5432</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="280">
@@ -4032,7 +4032,7 @@
         <v>12</v>
       </c>
       <c r="D280" t="n">
-        <v>3114</v>
+        <v>4646</v>
       </c>
     </row>
     <row r="281">
@@ -4046,7 +4046,7 @@
         <v>15</v>
       </c>
       <c r="D281" t="n">
-        <v>5397</v>
+        <v>4900</v>
       </c>
     </row>
     <row r="282">
@@ -4060,7 +4060,7 @@
         <v>17</v>
       </c>
       <c r="D282" t="n">
-        <v>1523</v>
+        <v>9650</v>
       </c>
     </row>
     <row r="283">
@@ -4074,7 +4074,7 @@
         <v>19</v>
       </c>
       <c r="D283" t="n">
-        <v>3620</v>
+        <v>3647</v>
       </c>
     </row>
     <row r="284">
@@ -4088,7 +4088,7 @@
         <v>6</v>
       </c>
       <c r="D284" t="n">
-        <v>2044</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="285">
@@ -4102,7 +4102,7 @@
         <v>9</v>
       </c>
       <c r="D285" t="n">
-        <v>9585</v>
+        <v>7067</v>
       </c>
     </row>
     <row r="286">
@@ -4116,7 +4116,7 @@
         <v>12</v>
       </c>
       <c r="D286" t="n">
-        <v>8191</v>
+        <v>5177</v>
       </c>
     </row>
     <row r="287">
@@ -4130,7 +4130,7 @@
         <v>15</v>
       </c>
       <c r="D287" t="n">
-        <v>8991</v>
+        <v>7159</v>
       </c>
     </row>
     <row r="288">
@@ -4144,7 +4144,7 @@
         <v>17</v>
       </c>
       <c r="D288" t="n">
-        <v>1708</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="289">
@@ -4158,7 +4158,7 @@
         <v>19</v>
       </c>
       <c r="D289" t="n">
-        <v>6802</v>
+        <v>8906</v>
       </c>
     </row>
     <row r="290">
@@ -4172,7 +4172,7 @@
         <v>6</v>
       </c>
       <c r="D290" t="n">
-        <v>8576</v>
+        <v>9898</v>
       </c>
     </row>
     <row r="291">
@@ -4186,7 +4186,7 @@
         <v>9</v>
       </c>
       <c r="D291" t="n">
-        <v>2179</v>
+        <v>3983</v>
       </c>
     </row>
     <row r="292">
@@ -4200,7 +4200,7 @@
         <v>12</v>
       </c>
       <c r="D292" t="n">
-        <v>7977</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="293">
@@ -4214,7 +4214,7 @@
         <v>15</v>
       </c>
       <c r="D293" t="n">
-        <v>5261</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="294">
@@ -4228,7 +4228,7 @@
         <v>17</v>
       </c>
       <c r="D294" t="n">
-        <v>5391</v>
+        <v>6302</v>
       </c>
     </row>
     <row r="295">
@@ -4242,7 +4242,7 @@
         <v>19</v>
       </c>
       <c r="D295" t="n">
-        <v>3879</v>
+        <v>8107</v>
       </c>
     </row>
     <row r="296">
@@ -4256,7 +4256,7 @@
         <v>6</v>
       </c>
       <c r="D296" t="n">
-        <v>7942</v>
+        <v>10140</v>
       </c>
     </row>
     <row r="297">
@@ -4270,7 +4270,7 @@
         <v>9</v>
       </c>
       <c r="D297" t="n">
-        <v>10773</v>
+        <v>6571</v>
       </c>
     </row>
     <row r="298">
@@ -4284,7 +4284,7 @@
         <v>12</v>
       </c>
       <c r="D298" t="n">
-        <v>1250</v>
+        <v>6418</v>
       </c>
     </row>
     <row r="299">
@@ -4298,7 +4298,7 @@
         <v>15</v>
       </c>
       <c r="D299" t="n">
-        <v>6412</v>
+        <v>10642</v>
       </c>
     </row>
     <row r="300">
@@ -4312,7 +4312,7 @@
         <v>17</v>
       </c>
       <c r="D300" t="n">
-        <v>8164</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="301">
@@ -4326,7 +4326,7 @@
         <v>19</v>
       </c>
       <c r="D301" t="n">
-        <v>6875</v>
+        <v>6166</v>
       </c>
     </row>
     <row r="302">
@@ -4340,7 +4340,7 @@
         <v>6</v>
       </c>
       <c r="D302" t="n">
-        <v>8690</v>
+        <v>7631</v>
       </c>
     </row>
     <row r="303">
@@ -4354,7 +4354,7 @@
         <v>9</v>
       </c>
       <c r="D303" t="n">
-        <v>5968</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="304">
@@ -4368,7 +4368,7 @@
         <v>12</v>
       </c>
       <c r="D304" t="n">
-        <v>5659</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="305">
@@ -4382,7 +4382,7 @@
         <v>15</v>
       </c>
       <c r="D305" t="n">
-        <v>2829</v>
+        <v>10121</v>
       </c>
     </row>
     <row r="306">
@@ -4396,7 +4396,7 @@
         <v>17</v>
       </c>
       <c r="D306" t="n">
-        <v>5206</v>
+        <v>9457</v>
       </c>
     </row>
     <row r="307">
@@ -4410,7 +4410,7 @@
         <v>19</v>
       </c>
       <c r="D307" t="n">
-        <v>5742</v>
+        <v>6482</v>
       </c>
     </row>
     <row r="308">
@@ -4424,7 +4424,7 @@
         <v>6</v>
       </c>
       <c r="D308" t="n">
-        <v>3617</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="309">
@@ -4438,7 +4438,7 @@
         <v>9</v>
       </c>
       <c r="D309" t="n">
-        <v>4047</v>
+        <v>3054</v>
       </c>
     </row>
     <row r="310">
@@ -4452,7 +4452,7 @@
         <v>12</v>
       </c>
       <c r="D310" t="n">
-        <v>8704</v>
+        <v>7142</v>
       </c>
     </row>
     <row r="311">
@@ -4466,7 +4466,7 @@
         <v>15</v>
       </c>
       <c r="D311" t="n">
-        <v>8186</v>
+        <v>6716</v>
       </c>
     </row>
     <row r="312">
@@ -4480,7 +4480,7 @@
         <v>17</v>
       </c>
       <c r="D312" t="n">
-        <v>4045</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="313">
@@ -4494,7 +4494,7 @@
         <v>19</v>
       </c>
       <c r="D313" t="n">
-        <v>2492</v>
+        <v>8549</v>
       </c>
     </row>
     <row r="314">
@@ -4508,7 +4508,7 @@
         <v>6</v>
       </c>
       <c r="D314" t="n">
-        <v>3194</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="315">
@@ -4522,7 +4522,7 @@
         <v>9</v>
       </c>
       <c r="D315" t="n">
-        <v>9269</v>
+        <v>10484</v>
       </c>
     </row>
     <row r="316">
@@ -4536,7 +4536,7 @@
         <v>12</v>
       </c>
       <c r="D316" t="n">
-        <v>7989</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="317">
@@ -4550,7 +4550,7 @@
         <v>15</v>
       </c>
       <c r="D317" t="n">
-        <v>5513</v>
+        <v>7897</v>
       </c>
     </row>
     <row r="318">
@@ -4564,7 +4564,7 @@
         <v>17</v>
       </c>
       <c r="D318" t="n">
-        <v>7487</v>
+        <v>8845</v>
       </c>
     </row>
     <row r="319">
@@ -4578,7 +4578,7 @@
         <v>19</v>
       </c>
       <c r="D319" t="n">
-        <v>7468</v>
+        <v>8607</v>
       </c>
     </row>
     <row r="320">
@@ -4592,7 +4592,7 @@
         <v>6</v>
       </c>
       <c r="D320" t="n">
-        <v>3328</v>
+        <v>9447</v>
       </c>
     </row>
     <row r="321">
@@ -4606,7 +4606,7 @@
         <v>9</v>
       </c>
       <c r="D321" t="n">
-        <v>1436</v>
+        <v>10762</v>
       </c>
     </row>
     <row r="322">
@@ -4620,7 +4620,7 @@
         <v>12</v>
       </c>
       <c r="D322" t="n">
-        <v>7179</v>
+        <v>8801</v>
       </c>
     </row>
     <row r="323">
@@ -4634,7 +4634,7 @@
         <v>15</v>
       </c>
       <c r="D323" t="n">
-        <v>10263</v>
+        <v>4556</v>
       </c>
     </row>
     <row r="324">
@@ -4648,7 +4648,7 @@
         <v>17</v>
       </c>
       <c r="D324" t="n">
-        <v>10484</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="325">
@@ -4662,7 +4662,7 @@
         <v>19</v>
       </c>
       <c r="D325" t="n">
-        <v>1913</v>
+        <v>9929</v>
       </c>
     </row>
     <row r="326">
@@ -4676,7 +4676,7 @@
         <v>6</v>
       </c>
       <c r="D326" t="n">
-        <v>3576</v>
+        <v>9018</v>
       </c>
     </row>
     <row r="327">
@@ -4690,7 +4690,7 @@
         <v>9</v>
       </c>
       <c r="D327" t="n">
-        <v>4935</v>
+        <v>5534</v>
       </c>
     </row>
     <row r="328">
@@ -4704,7 +4704,7 @@
         <v>12</v>
       </c>
       <c r="D328" t="n">
-        <v>1058</v>
+        <v>3704</v>
       </c>
     </row>
     <row r="329">
@@ -4718,7 +4718,7 @@
         <v>15</v>
       </c>
       <c r="D329" t="n">
-        <v>9109</v>
+        <v>3844</v>
       </c>
     </row>
     <row r="330">
@@ -4732,7 +4732,7 @@
         <v>17</v>
       </c>
       <c r="D330" t="n">
-        <v>1155</v>
+        <v>2901</v>
       </c>
     </row>
     <row r="331">
@@ -4746,7 +4746,7 @@
         <v>19</v>
       </c>
       <c r="D331" t="n">
-        <v>9495</v>
+        <v>10468</v>
       </c>
     </row>
     <row r="332">
@@ -4760,7 +4760,7 @@
         <v>6</v>
       </c>
       <c r="D332" t="n">
-        <v>8634</v>
+        <v>7742</v>
       </c>
     </row>
     <row r="333">
@@ -4774,7 +4774,7 @@
         <v>9</v>
       </c>
       <c r="D333" t="n">
-        <v>4925</v>
+        <v>3063</v>
       </c>
     </row>
     <row r="334">
@@ -4788,7 +4788,7 @@
         <v>12</v>
       </c>
       <c r="D334" t="n">
-        <v>10744</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="335">
@@ -4802,7 +4802,7 @@
         <v>15</v>
       </c>
       <c r="D335" t="n">
-        <v>3520</v>
+        <v>7286</v>
       </c>
     </row>
     <row r="336">
@@ -4816,7 +4816,7 @@
         <v>17</v>
       </c>
       <c r="D336" t="n">
-        <v>1371</v>
+        <v>6343</v>
       </c>
     </row>
     <row r="337">
@@ -4830,7 +4830,7 @@
         <v>19</v>
       </c>
       <c r="D337" t="n">
-        <v>4630</v>
+        <v>9897</v>
       </c>
     </row>
     <row r="338">
@@ -4844,7 +4844,7 @@
         <v>6</v>
       </c>
       <c r="D338" t="n">
-        <v>9056</v>
+        <v>8535</v>
       </c>
     </row>
     <row r="339">
@@ -4858,7 +4858,7 @@
         <v>9</v>
       </c>
       <c r="D339" t="n">
-        <v>10655</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="340">
@@ -4872,7 +4872,7 @@
         <v>12</v>
       </c>
       <c r="D340" t="n">
-        <v>1975</v>
+        <v>9180</v>
       </c>
     </row>
     <row r="341">
@@ -4886,7 +4886,7 @@
         <v>15</v>
       </c>
       <c r="D341" t="n">
-        <v>6857</v>
+        <v>4640</v>
       </c>
     </row>
     <row r="342">
@@ -4900,7 +4900,7 @@
         <v>17</v>
       </c>
       <c r="D342" t="n">
-        <v>7829</v>
+        <v>6143</v>
       </c>
     </row>
     <row r="343">
@@ -4914,7 +4914,7 @@
         <v>19</v>
       </c>
       <c r="D343" t="n">
-        <v>1665</v>
+        <v>3393</v>
       </c>
     </row>
     <row r="344">
@@ -4928,7 +4928,7 @@
         <v>6</v>
       </c>
       <c r="D344" t="n">
-        <v>7882</v>
+        <v>9470</v>
       </c>
     </row>
     <row r="345">
@@ -4942,7 +4942,7 @@
         <v>9</v>
       </c>
       <c r="D345" t="n">
-        <v>4289</v>
+        <v>4398</v>
       </c>
     </row>
     <row r="346">
@@ -4956,7 +4956,7 @@
         <v>12</v>
       </c>
       <c r="D346" t="n">
-        <v>4026</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="347">
@@ -4970,7 +4970,7 @@
         <v>15</v>
       </c>
       <c r="D347" t="n">
-        <v>8351</v>
+        <v>3404</v>
       </c>
     </row>
     <row r="348">
@@ -4984,7 +4984,7 @@
         <v>17</v>
       </c>
       <c r="D348" t="n">
-        <v>7348</v>
+        <v>3076</v>
       </c>
     </row>
     <row r="349">
@@ -4998,7 +4998,7 @@
         <v>19</v>
       </c>
       <c r="D349" t="n">
-        <v>4615</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="350">
@@ -5012,7 +5012,7 @@
         <v>6</v>
       </c>
       <c r="D350" t="n">
-        <v>8054</v>
+        <v>4465</v>
       </c>
     </row>
     <row r="351">
@@ -5026,7 +5026,7 @@
         <v>9</v>
       </c>
       <c r="D351" t="n">
-        <v>4623</v>
+        <v>7216</v>
       </c>
     </row>
     <row r="352">
@@ -5040,7 +5040,7 @@
         <v>12</v>
       </c>
       <c r="D352" t="n">
-        <v>3437</v>
+        <v>6456</v>
       </c>
     </row>
     <row r="353">
@@ -5054,7 +5054,7 @@
         <v>15</v>
       </c>
       <c r="D353" t="n">
-        <v>4558</v>
+        <v>3096</v>
       </c>
     </row>
     <row r="354">
@@ -5068,7 +5068,7 @@
         <v>17</v>
       </c>
       <c r="D354" t="n">
-        <v>6535</v>
+        <v>5772</v>
       </c>
     </row>
     <row r="355">
@@ -5082,7 +5082,7 @@
         <v>19</v>
       </c>
       <c r="D355" t="n">
-        <v>4512</v>
+        <v>9954</v>
       </c>
     </row>
     <row r="356">
@@ -5096,7 +5096,7 @@
         <v>6</v>
       </c>
       <c r="D356" t="n">
-        <v>5881</v>
+        <v>7575</v>
       </c>
     </row>
     <row r="357">
@@ -5110,7 +5110,7 @@
         <v>9</v>
       </c>
       <c r="D357" t="n">
-        <v>1233</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="358">
@@ -5124,7 +5124,7 @@
         <v>12</v>
       </c>
       <c r="D358" t="n">
-        <v>10442</v>
+        <v>9577</v>
       </c>
     </row>
     <row r="359">
@@ -5138,7 +5138,7 @@
         <v>15</v>
       </c>
       <c r="D359" t="n">
-        <v>2741</v>
+        <v>8529</v>
       </c>
     </row>
     <row r="360">
@@ -5152,7 +5152,7 @@
         <v>17</v>
       </c>
       <c r="D360" t="n">
-        <v>4664</v>
+        <v>3594</v>
       </c>
     </row>
     <row r="361">
@@ -5166,7 +5166,7 @@
         <v>19</v>
       </c>
       <c r="D361" t="n">
-        <v>7400</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="362">
@@ -5180,7 +5180,7 @@
         <v>6</v>
       </c>
       <c r="D362" t="n">
-        <v>6054</v>
+        <v>4562</v>
       </c>
     </row>
     <row r="363">
@@ -5194,7 +5194,7 @@
         <v>9</v>
       </c>
       <c r="D363" t="n">
-        <v>5995</v>
+        <v>6136</v>
       </c>
     </row>
     <row r="364">
@@ -5208,7 +5208,7 @@
         <v>12</v>
       </c>
       <c r="D364" t="n">
-        <v>1144</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="365">
@@ -5222,7 +5222,7 @@
         <v>15</v>
       </c>
       <c r="D365" t="n">
-        <v>1651</v>
+        <v>6238</v>
       </c>
     </row>
     <row r="366">
@@ -5236,7 +5236,7 @@
         <v>17</v>
       </c>
       <c r="D366" t="n">
-        <v>5166</v>
+        <v>4676</v>
       </c>
     </row>
     <row r="367">
@@ -5250,7 +5250,7 @@
         <v>19</v>
       </c>
       <c r="D367" t="n">
-        <v>5860</v>
+        <v>5365</v>
       </c>
     </row>
     <row r="368">
@@ -5264,7 +5264,7 @@
         <v>6</v>
       </c>
       <c r="D368" t="n">
-        <v>5829</v>
+        <v>5812</v>
       </c>
     </row>
     <row r="369">
@@ -5278,7 +5278,7 @@
         <v>9</v>
       </c>
       <c r="D369" t="n">
-        <v>4629</v>
+        <v>3276</v>
       </c>
     </row>
     <row r="370">
@@ -5292,7 +5292,7 @@
         <v>12</v>
       </c>
       <c r="D370" t="n">
-        <v>6876</v>
+        <v>9215</v>
       </c>
     </row>
     <row r="371">
@@ -5306,7 +5306,7 @@
         <v>15</v>
       </c>
       <c r="D371" t="n">
-        <v>4985</v>
+        <v>3765</v>
       </c>
     </row>
     <row r="372">
@@ -5320,7 +5320,7 @@
         <v>17</v>
       </c>
       <c r="D372" t="n">
-        <v>2005</v>
+        <v>8040</v>
       </c>
     </row>
     <row r="373">
@@ -5334,7 +5334,7 @@
         <v>19</v>
       </c>
       <c r="D373" t="n">
-        <v>5181</v>
+        <v>7623</v>
       </c>
     </row>
     <row r="374">
@@ -5348,7 +5348,7 @@
         <v>6</v>
       </c>
       <c r="D374" t="n">
-        <v>9055</v>
+        <v>3386</v>
       </c>
     </row>
     <row r="375">
@@ -5362,7 +5362,7 @@
         <v>9</v>
       </c>
       <c r="D375" t="n">
-        <v>10434</v>
+        <v>5350</v>
       </c>
     </row>
     <row r="376">
@@ -5376,7 +5376,7 @@
         <v>12</v>
       </c>
       <c r="D376" t="n">
-        <v>8436</v>
+        <v>2726</v>
       </c>
     </row>
     <row r="377">
@@ -5390,7 +5390,7 @@
         <v>15</v>
       </c>
       <c r="D377" t="n">
-        <v>6476</v>
+        <v>3437</v>
       </c>
     </row>
     <row r="378">
@@ -5404,7 +5404,7 @@
         <v>17</v>
       </c>
       <c r="D378" t="n">
-        <v>2683</v>
+        <v>5828</v>
       </c>
     </row>
     <row r="379">
@@ -5418,7 +5418,7 @@
         <v>19</v>
       </c>
       <c r="D379" t="n">
-        <v>3703</v>
+        <v>6588</v>
       </c>
     </row>
     <row r="380">
@@ -5432,7 +5432,7 @@
         <v>6</v>
       </c>
       <c r="D380" t="n">
-        <v>10453</v>
+        <v>9586</v>
       </c>
     </row>
     <row r="381">
@@ -5446,7 +5446,7 @@
         <v>9</v>
       </c>
       <c r="D381" t="n">
-        <v>4258</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="382">
@@ -5460,7 +5460,7 @@
         <v>12</v>
       </c>
       <c r="D382" t="n">
-        <v>8056</v>
+        <v>3707</v>
       </c>
     </row>
     <row r="383">
@@ -5474,7 +5474,7 @@
         <v>15</v>
       </c>
       <c r="D383" t="n">
-        <v>2349</v>
+        <v>9162</v>
       </c>
     </row>
     <row r="384">
@@ -5488,7 +5488,7 @@
         <v>17</v>
       </c>
       <c r="D384" t="n">
-        <v>4048</v>
+        <v>6535</v>
       </c>
     </row>
     <row r="385">
@@ -5502,7 +5502,7 @@
         <v>19</v>
       </c>
       <c r="D385" t="n">
-        <v>8999</v>
+        <v>7143</v>
       </c>
     </row>
     <row r="386">
@@ -5516,7 +5516,7 @@
         <v>6</v>
       </c>
       <c r="D386" t="n">
-        <v>3362</v>
+        <v>4682</v>
       </c>
     </row>
     <row r="387">
@@ -5530,7 +5530,7 @@
         <v>9</v>
       </c>
       <c r="D387" t="n">
-        <v>5700</v>
+        <v>5015</v>
       </c>
     </row>
     <row r="388">
@@ -5544,7 +5544,7 @@
         <v>12</v>
       </c>
       <c r="D388" t="n">
-        <v>5905</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="389">
@@ -5558,7 +5558,7 @@
         <v>15</v>
       </c>
       <c r="D389" t="n">
-        <v>3228</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="390">
@@ -5572,7 +5572,7 @@
         <v>17</v>
       </c>
       <c r="D390" t="n">
-        <v>3298</v>
+        <v>6483</v>
       </c>
     </row>
     <row r="391">
@@ -5586,7 +5586,7 @@
         <v>19</v>
       </c>
       <c r="D391" t="n">
-        <v>4309</v>
+        <v>6426</v>
       </c>
     </row>
     <row r="392">
@@ -5600,7 +5600,7 @@
         <v>6</v>
       </c>
       <c r="D392" t="n">
-        <v>6541</v>
+        <v>8615</v>
       </c>
     </row>
     <row r="393">
@@ -5614,7 +5614,7 @@
         <v>9</v>
       </c>
       <c r="D393" t="n">
-        <v>8944</v>
+        <v>6770</v>
       </c>
     </row>
     <row r="394">
@@ -5628,7 +5628,7 @@
         <v>12</v>
       </c>
       <c r="D394" t="n">
-        <v>1261</v>
+        <v>3988</v>
       </c>
     </row>
     <row r="395">
@@ -5642,7 +5642,7 @@
         <v>15</v>
       </c>
       <c r="D395" t="n">
-        <v>3848</v>
+        <v>7771</v>
       </c>
     </row>
     <row r="396">
@@ -5656,7 +5656,7 @@
         <v>17</v>
       </c>
       <c r="D396" t="n">
-        <v>9706</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="397">
@@ -5670,7 +5670,7 @@
         <v>19</v>
       </c>
       <c r="D397" t="n">
-        <v>3390</v>
+        <v>4322</v>
       </c>
     </row>
     <row r="398">
@@ -5684,7 +5684,7 @@
         <v>6</v>
       </c>
       <c r="D398" t="n">
-        <v>10645</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="399">
@@ -5698,7 +5698,7 @@
         <v>9</v>
       </c>
       <c r="D399" t="n">
-        <v>7518</v>
+        <v>10003</v>
       </c>
     </row>
     <row r="400">
@@ -5712,7 +5712,7 @@
         <v>12</v>
       </c>
       <c r="D400" t="n">
-        <v>3121</v>
+        <v>5439</v>
       </c>
     </row>
     <row r="401">
@@ -5726,7 +5726,7 @@
         <v>15</v>
       </c>
       <c r="D401" t="n">
-        <v>9619</v>
+        <v>8503</v>
       </c>
     </row>
     <row r="402">
@@ -5740,7 +5740,7 @@
         <v>17</v>
       </c>
       <c r="D402" t="n">
-        <v>10740</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="403">
@@ -5754,7 +5754,7 @@
         <v>19</v>
       </c>
       <c r="D403" t="n">
-        <v>8251</v>
+        <v>7407</v>
       </c>
     </row>
     <row r="404">
@@ -5768,7 +5768,7 @@
         <v>6</v>
       </c>
       <c r="D404" t="n">
-        <v>6449</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="405">
@@ -5782,7 +5782,7 @@
         <v>9</v>
       </c>
       <c r="D405" t="n">
-        <v>4664</v>
+        <v>9383</v>
       </c>
     </row>
     <row r="406">
@@ -5796,7 +5796,7 @@
         <v>12</v>
       </c>
       <c r="D406" t="n">
-        <v>7099</v>
+        <v>7963</v>
       </c>
     </row>
     <row r="407">
@@ -5810,7 +5810,7 @@
         <v>15</v>
       </c>
       <c r="D407" t="n">
-        <v>5481</v>
+        <v>6002</v>
       </c>
     </row>
     <row r="408">
@@ -5824,7 +5824,7 @@
         <v>17</v>
       </c>
       <c r="D408" t="n">
-        <v>6993</v>
+        <v>5005</v>
       </c>
     </row>
     <row r="409">
@@ -5838,7 +5838,7 @@
         <v>19</v>
       </c>
       <c r="D409" t="n">
-        <v>2722</v>
+        <v>4350</v>
       </c>
     </row>
     <row r="410">
@@ -5852,7 +5852,7 @@
         <v>6</v>
       </c>
       <c r="D410" t="n">
-        <v>7081</v>
+        <v>10383</v>
       </c>
     </row>
     <row r="411">
@@ -5866,7 +5866,7 @@
         <v>9</v>
       </c>
       <c r="D411" t="n">
-        <v>8830</v>
+        <v>5775</v>
       </c>
     </row>
     <row r="412">
@@ -5880,7 +5880,7 @@
         <v>12</v>
       </c>
       <c r="D412" t="n">
-        <v>9382</v>
+        <v>8801</v>
       </c>
     </row>
     <row r="413">
@@ -5894,7 +5894,7 @@
         <v>15</v>
       </c>
       <c r="D413" t="n">
-        <v>2610</v>
+        <v>5324</v>
       </c>
     </row>
     <row r="414">
@@ -5908,7 +5908,7 @@
         <v>17</v>
       </c>
       <c r="D414" t="n">
-        <v>8970</v>
+        <v>6968</v>
       </c>
     </row>
     <row r="415">
@@ -5922,7 +5922,7 @@
         <v>19</v>
       </c>
       <c r="D415" t="n">
-        <v>9537</v>
+        <v>6785</v>
       </c>
     </row>
     <row r="416">
@@ -5936,7 +5936,7 @@
         <v>6</v>
       </c>
       <c r="D416" t="n">
-        <v>8040</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="417">
@@ -5950,7 +5950,7 @@
         <v>9</v>
       </c>
       <c r="D417" t="n">
-        <v>4288</v>
+        <v>7040</v>
       </c>
     </row>
     <row r="418">
@@ -5964,7 +5964,7 @@
         <v>12</v>
       </c>
       <c r="D418" t="n">
-        <v>9905</v>
+        <v>9237</v>
       </c>
     </row>
     <row r="419">
@@ -5978,7 +5978,7 @@
         <v>15</v>
       </c>
       <c r="D419" t="n">
-        <v>5337</v>
+        <v>4642</v>
       </c>
     </row>
     <row r="420">
@@ -5992,7 +5992,7 @@
         <v>17</v>
       </c>
       <c r="D420" t="n">
-        <v>3433</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="421">
@@ -6006,7 +6006,7 @@
         <v>19</v>
       </c>
       <c r="D421" t="n">
-        <v>6898</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="422">
@@ -6020,7 +6020,7 @@
         <v>6</v>
       </c>
       <c r="D422" t="n">
-        <v>3020</v>
+        <v>5414</v>
       </c>
     </row>
     <row r="423">
@@ -6034,7 +6034,7 @@
         <v>9</v>
       </c>
       <c r="D423" t="n">
-        <v>7713</v>
+        <v>8150</v>
       </c>
     </row>
     <row r="424">
@@ -6048,7 +6048,7 @@
         <v>12</v>
       </c>
       <c r="D424" t="n">
-        <v>7931</v>
+        <v>4613</v>
       </c>
     </row>
     <row r="425">
@@ -6062,7 +6062,7 @@
         <v>15</v>
       </c>
       <c r="D425" t="n">
-        <v>2378</v>
+        <v>6423</v>
       </c>
     </row>
     <row r="426">
@@ -6076,7 +6076,7 @@
         <v>17</v>
       </c>
       <c r="D426" t="n">
-        <v>1322</v>
+        <v>9507</v>
       </c>
     </row>
     <row r="427">
@@ -6090,7 +6090,7 @@
         <v>19</v>
       </c>
       <c r="D427" t="n">
-        <v>7056</v>
+        <v>8122</v>
       </c>
     </row>
     <row r="428">
@@ -6104,7 +6104,7 @@
         <v>6</v>
       </c>
       <c r="D428" t="n">
-        <v>10609</v>
+        <v>9437</v>
       </c>
     </row>
     <row r="429">
@@ -6118,7 +6118,7 @@
         <v>9</v>
       </c>
       <c r="D429" t="n">
-        <v>5082</v>
+        <v>3671</v>
       </c>
     </row>
     <row r="430">
@@ -6132,7 +6132,7 @@
         <v>12</v>
       </c>
       <c r="D430" t="n">
-        <v>5993</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="431">
@@ -6146,7 +6146,7 @@
         <v>15</v>
       </c>
       <c r="D431" t="n">
-        <v>7030</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="432">
@@ -6160,7 +6160,7 @@
         <v>17</v>
       </c>
       <c r="D432" t="n">
-        <v>2044</v>
+        <v>3914</v>
       </c>
     </row>
     <row r="433">
@@ -6174,7 +6174,7 @@
         <v>19</v>
       </c>
       <c r="D433" t="n">
-        <v>7442</v>
+        <v>8358</v>
       </c>
     </row>
     <row r="434">
@@ -6188,7 +6188,7 @@
         <v>6</v>
       </c>
       <c r="D434" t="n">
-        <v>3771</v>
+        <v>7989</v>
       </c>
     </row>
     <row r="435">
@@ -6202,7 +6202,7 @@
         <v>9</v>
       </c>
       <c r="D435" t="n">
-        <v>9339</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="436">
@@ -6216,7 +6216,7 @@
         <v>12</v>
       </c>
       <c r="D436" t="n">
-        <v>1372</v>
+        <v>7630</v>
       </c>
     </row>
     <row r="437">
@@ -6230,7 +6230,7 @@
         <v>15</v>
       </c>
       <c r="D437" t="n">
-        <v>4879</v>
+        <v>4138</v>
       </c>
     </row>
     <row r="438">
@@ -6244,7 +6244,7 @@
         <v>17</v>
       </c>
       <c r="D438" t="n">
-        <v>1384</v>
+        <v>10769</v>
       </c>
     </row>
     <row r="439">
@@ -6258,7 +6258,7 @@
         <v>19</v>
       </c>
       <c r="D439" t="n">
-        <v>8818</v>
+        <v>4146</v>
       </c>
     </row>
     <row r="440">
@@ -6272,7 +6272,7 @@
         <v>6</v>
       </c>
       <c r="D440" t="n">
-        <v>9026</v>
+        <v>6550</v>
       </c>
     </row>
     <row r="441">
@@ -6286,7 +6286,7 @@
         <v>9</v>
       </c>
       <c r="D441" t="n">
-        <v>10615</v>
+        <v>7436</v>
       </c>
     </row>
     <row r="442">
@@ -6300,7 +6300,7 @@
         <v>12</v>
       </c>
       <c r="D442" t="n">
-        <v>7072</v>
+        <v>10244</v>
       </c>
     </row>
     <row r="443">
@@ -6314,7 +6314,7 @@
         <v>15</v>
       </c>
       <c r="D443" t="n">
-        <v>9505</v>
+        <v>10362</v>
       </c>
     </row>
     <row r="444">
@@ -6328,7 +6328,7 @@
         <v>17</v>
       </c>
       <c r="D444" t="n">
-        <v>2553</v>
+        <v>4670</v>
       </c>
     </row>
     <row r="445">
@@ -6342,7 +6342,7 @@
         <v>19</v>
       </c>
       <c r="D445" t="n">
-        <v>5523</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="446">
@@ -6356,7 +6356,7 @@
         <v>6</v>
       </c>
       <c r="D446" t="n">
-        <v>2224</v>
+        <v>7690</v>
       </c>
     </row>
     <row r="447">
@@ -6370,7 +6370,7 @@
         <v>9</v>
       </c>
       <c r="D447" t="n">
-        <v>6958</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="448">
@@ -6384,7 +6384,7 @@
         <v>12</v>
       </c>
       <c r="D448" t="n">
-        <v>8130</v>
+        <v>10846</v>
       </c>
     </row>
     <row r="449">
@@ -6398,7 +6398,7 @@
         <v>15</v>
       </c>
       <c r="D449" t="n">
-        <v>1472</v>
+        <v>5780</v>
       </c>
     </row>
     <row r="450">
@@ -6412,7 +6412,7 @@
         <v>17</v>
       </c>
       <c r="D450" t="n">
-        <v>3642</v>
+        <v>6812</v>
       </c>
     </row>
     <row r="451">
@@ -6426,7 +6426,7 @@
         <v>19</v>
       </c>
       <c r="D451" t="n">
-        <v>1922</v>
+        <v>8034</v>
       </c>
     </row>
     <row r="452">
@@ -6440,7 +6440,7 @@
         <v>6</v>
       </c>
       <c r="D452" t="n">
-        <v>9860</v>
+        <v>6667</v>
       </c>
     </row>
     <row r="453">
@@ -6454,7 +6454,7 @@
         <v>9</v>
       </c>
       <c r="D453" t="n">
-        <v>6808</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="454">
@@ -6468,7 +6468,7 @@
         <v>12</v>
       </c>
       <c r="D454" t="n">
-        <v>8468</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="455">
@@ -6482,7 +6482,7 @@
         <v>15</v>
       </c>
       <c r="D455" t="n">
-        <v>8981</v>
+        <v>7005</v>
       </c>
     </row>
     <row r="456">
@@ -6496,7 +6496,7 @@
         <v>17</v>
       </c>
       <c r="D456" t="n">
-        <v>10189</v>
+        <v>8664</v>
       </c>
     </row>
     <row r="457">
@@ -6510,7 +6510,7 @@
         <v>19</v>
       </c>
       <c r="D457" t="n">
-        <v>4563</v>
+        <v>8623</v>
       </c>
     </row>
     <row r="458">
@@ -6524,7 +6524,7 @@
         <v>6</v>
       </c>
       <c r="D458" t="n">
-        <v>7397</v>
+        <v>4042</v>
       </c>
     </row>
     <row r="459">
@@ -6538,7 +6538,7 @@
         <v>9</v>
       </c>
       <c r="D459" t="n">
-        <v>7165</v>
+        <v>5462</v>
       </c>
     </row>
     <row r="460">
@@ -6552,7 +6552,7 @@
         <v>12</v>
       </c>
       <c r="D460" t="n">
-        <v>4436</v>
+        <v>5009</v>
       </c>
     </row>
     <row r="461">
@@ -6566,7 +6566,7 @@
         <v>15</v>
       </c>
       <c r="D461" t="n">
-        <v>2435</v>
+        <v>10901</v>
       </c>
     </row>
     <row r="462">
@@ -6580,7 +6580,7 @@
         <v>17</v>
       </c>
       <c r="D462" t="n">
-        <v>1064</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="463">
@@ -6594,7 +6594,7 @@
         <v>19</v>
       </c>
       <c r="D463" t="n">
-        <v>7270</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="464">
@@ -6608,7 +6608,7 @@
         <v>6</v>
       </c>
       <c r="D464" t="n">
-        <v>3502</v>
+        <v>7075</v>
       </c>
     </row>
     <row r="465">
@@ -6622,7 +6622,7 @@
         <v>9</v>
       </c>
       <c r="D465" t="n">
-        <v>10058</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="466">
@@ -6636,7 +6636,7 @@
         <v>12</v>
       </c>
       <c r="D466" t="n">
-        <v>9489</v>
+        <v>9017</v>
       </c>
     </row>
     <row r="467">
@@ -6650,7 +6650,7 @@
         <v>15</v>
       </c>
       <c r="D467" t="n">
-        <v>8119</v>
+        <v>4708</v>
       </c>
     </row>
     <row r="468">
@@ -6664,7 +6664,7 @@
         <v>17</v>
       </c>
       <c r="D468" t="n">
-        <v>7689</v>
+        <v>9430</v>
       </c>
     </row>
     <row r="469">
@@ -6678,7 +6678,7 @@
         <v>19</v>
       </c>
       <c r="D469" t="n">
-        <v>6495</v>
+        <v>8872</v>
       </c>
     </row>
     <row r="470">
@@ -6692,7 +6692,7 @@
         <v>6</v>
       </c>
       <c r="D470" t="n">
-        <v>7903</v>
+        <v>7664</v>
       </c>
     </row>
     <row r="471">
@@ -6706,7 +6706,7 @@
         <v>9</v>
       </c>
       <c r="D471" t="n">
-        <v>1002</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="472">
@@ -6720,7 +6720,7 @@
         <v>12</v>
       </c>
       <c r="D472" t="n">
-        <v>2054</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="473">
@@ -6734,7 +6734,7 @@
         <v>15</v>
       </c>
       <c r="D473" t="n">
-        <v>2550</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="474">
@@ -6748,7 +6748,7 @@
         <v>17</v>
       </c>
       <c r="D474" t="n">
-        <v>7480</v>
+        <v>8797</v>
       </c>
     </row>
     <row r="475">
@@ -6762,7 +6762,7 @@
         <v>19</v>
       </c>
       <c r="D475" t="n">
-        <v>1736</v>
+        <v>5512</v>
       </c>
     </row>
     <row r="476">
@@ -6776,7 +6776,7 @@
         <v>6</v>
       </c>
       <c r="D476" t="n">
-        <v>1080</v>
+        <v>6765</v>
       </c>
     </row>
     <row r="477">
@@ -6790,7 +6790,7 @@
         <v>9</v>
       </c>
       <c r="D477" t="n">
-        <v>4469</v>
+        <v>9593</v>
       </c>
     </row>
     <row r="478">
@@ -6804,7 +6804,7 @@
         <v>12</v>
       </c>
       <c r="D478" t="n">
-        <v>3808</v>
+        <v>5274</v>
       </c>
     </row>
     <row r="479">
@@ -6818,7 +6818,7 @@
         <v>15</v>
       </c>
       <c r="D479" t="n">
-        <v>4350</v>
+        <v>10823</v>
       </c>
     </row>
     <row r="480">
@@ -6832,7 +6832,7 @@
         <v>17</v>
       </c>
       <c r="D480" t="n">
-        <v>9856</v>
+        <v>6546</v>
       </c>
     </row>
     <row r="481">
@@ -6846,7 +6846,7 @@
         <v>19</v>
       </c>
       <c r="D481" t="n">
-        <v>6355</v>
+        <v>6254</v>
       </c>
     </row>
     <row r="482">
@@ -6860,7 +6860,7 @@
         <v>6</v>
       </c>
       <c r="D482" t="n">
-        <v>4623</v>
+        <v>10704</v>
       </c>
     </row>
     <row r="483">
@@ -6874,7 +6874,7 @@
         <v>9</v>
       </c>
       <c r="D483" t="n">
-        <v>6591</v>
+        <v>9975</v>
       </c>
     </row>
     <row r="484">
@@ -6888,7 +6888,7 @@
         <v>12</v>
       </c>
       <c r="D484" t="n">
-        <v>9640</v>
+        <v>8494</v>
       </c>
     </row>
     <row r="485">
@@ -6902,7 +6902,7 @@
         <v>15</v>
       </c>
       <c r="D485" t="n">
-        <v>2165</v>
+        <v>10962</v>
       </c>
     </row>
     <row r="486">
@@ -6916,7 +6916,7 @@
         <v>17</v>
       </c>
       <c r="D486" t="n">
-        <v>7156</v>
+        <v>8788</v>
       </c>
     </row>
     <row r="487">
@@ -6930,7 +6930,7 @@
         <v>19</v>
       </c>
       <c r="D487" t="n">
-        <v>5985</v>
+        <v>8372</v>
       </c>
     </row>
     <row r="488">
@@ -6944,7 +6944,7 @@
         <v>6</v>
       </c>
       <c r="D488" t="n">
-        <v>8076</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="489">
@@ -6958,7 +6958,7 @@
         <v>9</v>
       </c>
       <c r="D489" t="n">
-        <v>1943</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="490">
@@ -6972,7 +6972,7 @@
         <v>12</v>
       </c>
       <c r="D490" t="n">
-        <v>1941</v>
+        <v>7231</v>
       </c>
     </row>
     <row r="491">
@@ -6986,7 +6986,7 @@
         <v>15</v>
       </c>
       <c r="D491" t="n">
-        <v>3296</v>
+        <v>10405</v>
       </c>
     </row>
     <row r="492">
@@ -7000,7 +7000,7 @@
         <v>17</v>
       </c>
       <c r="D492" t="n">
-        <v>8477</v>
+        <v>6156</v>
       </c>
     </row>
     <row r="493">
@@ -7014,7 +7014,7 @@
         <v>19</v>
       </c>
       <c r="D493" t="n">
-        <v>4157</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="494">
@@ -7028,7 +7028,7 @@
         <v>6</v>
       </c>
       <c r="D494" t="n">
-        <v>10650</v>
+        <v>10118</v>
       </c>
     </row>
     <row r="495">
@@ -7042,7 +7042,7 @@
         <v>9</v>
       </c>
       <c r="D495" t="n">
-        <v>8926</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="496">
@@ -7056,7 +7056,7 @@
         <v>12</v>
       </c>
       <c r="D496" t="n">
-        <v>7288</v>
+        <v>8068</v>
       </c>
     </row>
     <row r="497">
@@ -7070,7 +7070,7 @@
         <v>15</v>
       </c>
       <c r="D497" t="n">
-        <v>10483</v>
+        <v>3327</v>
       </c>
     </row>
     <row r="498">
@@ -7084,7 +7084,7 @@
         <v>17</v>
       </c>
       <c r="D498" t="n">
-        <v>9255</v>
+        <v>8300</v>
       </c>
     </row>
     <row r="499">
@@ -7098,7 +7098,7 @@
         <v>19</v>
       </c>
       <c r="D499" t="n">
-        <v>10928</v>
+        <v>4684</v>
       </c>
     </row>
     <row r="500">
@@ -7112,7 +7112,7 @@
         <v>6</v>
       </c>
       <c r="D500" t="n">
-        <v>1884</v>
+        <v>5593</v>
       </c>
     </row>
     <row r="501">
@@ -7126,7 +7126,7 @@
         <v>9</v>
       </c>
       <c r="D501" t="n">
-        <v>5819</v>
+        <v>5097</v>
       </c>
     </row>
   </sheetData>
@@ -7166,7 +7166,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>172317</v>
+        <v>138633</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -7186,7 +7186,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>150537</v>
+        <v>140691</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -7206,7 +7206,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161969</v>
+        <v>141714</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -7226,7 +7226,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>147030</v>
+        <v>152623</v>
       </c>
     </row>
   </sheetData>

--- a/test-pivot-table.xlsx
+++ b/test-pivot-table.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>產品</t>
   </si>
@@ -73,6 +73,18 @@
   <si>
     <t/>
   </si>
+  <si>
+    <t>筆記型電腦 小計</t>
+  </si>
+  <si>
+    <t>平板電腦 小計</t>
+  </si>
+  <si>
+    <t>智慧型手機 小計</t>
+  </si>
+  <si>
+    <t>耳機 小計</t>
+  </si>
 </sst>
 </file>
 
@@ -140,7 +152,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>8543</v>
+        <v>4008</v>
       </c>
     </row>
     <row r="3">
@@ -154,7 +166,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>6189</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="4">
@@ -168,7 +180,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>5250</v>
+        <v>8868</v>
       </c>
     </row>
     <row r="5">
@@ -182,7 +194,7 @@
         <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>2200</v>
+        <v>8552</v>
       </c>
     </row>
     <row r="6">
@@ -196,7 +208,7 @@
         <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>9929</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="7">
@@ -210,7 +222,7 @@
         <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>4310</v>
+        <v>9437</v>
       </c>
     </row>
     <row r="8">
@@ -224,7 +236,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>3398</v>
+        <v>10043</v>
       </c>
     </row>
     <row r="9">
@@ -238,7 +250,7 @@
         <v>9</v>
       </c>
       <c r="D9" t="n">
-        <v>3145</v>
+        <v>9629</v>
       </c>
     </row>
     <row r="10">
@@ -252,7 +264,7 @@
         <v>12</v>
       </c>
       <c r="D10" t="n">
-        <v>7329</v>
+        <v>10142</v>
       </c>
     </row>
     <row r="11">
@@ -266,7 +278,7 @@
         <v>15</v>
       </c>
       <c r="D11" t="n">
-        <v>8568</v>
+        <v>3901</v>
       </c>
     </row>
     <row r="12">
@@ -280,7 +292,7 @@
         <v>17</v>
       </c>
       <c r="D12" t="n">
-        <v>1556</v>
+        <v>7529</v>
       </c>
     </row>
     <row r="13">
@@ -294,7 +306,7 @@
         <v>19</v>
       </c>
       <c r="D13" t="n">
-        <v>1301</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="14">
@@ -308,7 +320,7 @@
         <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>3307</v>
+        <v>4087</v>
       </c>
     </row>
     <row r="15">
@@ -322,7 +334,7 @@
         <v>9</v>
       </c>
       <c r="D15" t="n">
-        <v>1348</v>
+        <v>6588</v>
       </c>
     </row>
     <row r="16">
@@ -336,7 +348,7 @@
         <v>12</v>
       </c>
       <c r="D16" t="n">
-        <v>8088</v>
+        <v>6643</v>
       </c>
     </row>
     <row r="17">
@@ -350,7 +362,7 @@
         <v>15</v>
       </c>
       <c r="D17" t="n">
-        <v>4249</v>
+        <v>8365</v>
       </c>
     </row>
     <row r="18">
@@ -364,7 +376,7 @@
         <v>17</v>
       </c>
       <c r="D18" t="n">
-        <v>3309</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="19">
@@ -378,7 +390,7 @@
         <v>19</v>
       </c>
       <c r="D19" t="n">
-        <v>5447</v>
+        <v>10840</v>
       </c>
     </row>
     <row r="20">
@@ -392,7 +404,7 @@
         <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>1881</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="21">
@@ -406,7 +418,7 @@
         <v>9</v>
       </c>
       <c r="D21" t="n">
-        <v>3596</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="22">
@@ -420,7 +432,7 @@
         <v>12</v>
       </c>
       <c r="D22" t="n">
-        <v>8802</v>
+        <v>6023</v>
       </c>
     </row>
     <row r="23">
@@ -434,7 +446,7 @@
         <v>15</v>
       </c>
       <c r="D23" t="n">
-        <v>4769</v>
+        <v>10420</v>
       </c>
     </row>
     <row r="24">
@@ -448,7 +460,7 @@
         <v>17</v>
       </c>
       <c r="D24" t="n">
-        <v>8657</v>
+        <v>4499</v>
       </c>
     </row>
     <row r="25">
@@ -462,7 +474,7 @@
         <v>19</v>
       </c>
       <c r="D25" t="n">
-        <v>3752</v>
+        <v>9541</v>
       </c>
     </row>
     <row r="26">
@@ -476,7 +488,7 @@
         <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>7074</v>
+        <v>6109</v>
       </c>
     </row>
     <row r="27">
@@ -490,7 +502,7 @@
         <v>9</v>
       </c>
       <c r="D27" t="n">
-        <v>2541</v>
+        <v>9790</v>
       </c>
     </row>
     <row r="28">
@@ -504,7 +516,7 @@
         <v>12</v>
       </c>
       <c r="D28" t="n">
-        <v>8475</v>
+        <v>3129</v>
       </c>
     </row>
     <row r="29">
@@ -518,7 +530,7 @@
         <v>15</v>
       </c>
       <c r="D29" t="n">
-        <v>10082</v>
+        <v>3742</v>
       </c>
     </row>
     <row r="30">
@@ -532,7 +544,7 @@
         <v>17</v>
       </c>
       <c r="D30" t="n">
-        <v>2946</v>
+        <v>9390</v>
       </c>
     </row>
     <row r="31">
@@ -546,7 +558,7 @@
         <v>19</v>
       </c>
       <c r="D31" t="n">
-        <v>2652</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="32">
@@ -560,7 +572,7 @@
         <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>7020</v>
+        <v>3641</v>
       </c>
     </row>
     <row r="33">
@@ -574,7 +586,7 @@
         <v>9</v>
       </c>
       <c r="D33" t="n">
-        <v>2222</v>
+        <v>6529</v>
       </c>
     </row>
     <row r="34">
@@ -588,7 +600,7 @@
         <v>12</v>
       </c>
       <c r="D34" t="n">
-        <v>5085</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="35">
@@ -602,7 +614,7 @@
         <v>15</v>
       </c>
       <c r="D35" t="n">
-        <v>10433</v>
+        <v>8856</v>
       </c>
     </row>
     <row r="36">
@@ -616,7 +628,7 @@
         <v>17</v>
       </c>
       <c r="D36" t="n">
-        <v>1215</v>
+        <v>5943</v>
       </c>
     </row>
     <row r="37">
@@ -630,7 +642,7 @@
         <v>19</v>
       </c>
       <c r="D37" t="n">
-        <v>9186</v>
+        <v>4706</v>
       </c>
     </row>
     <row r="38">
@@ -644,7 +656,7 @@
         <v>6</v>
       </c>
       <c r="D38" t="n">
-        <v>1523</v>
+        <v>10955</v>
       </c>
     </row>
     <row r="39">
@@ -658,7 +670,7 @@
         <v>9</v>
       </c>
       <c r="D39" t="n">
-        <v>6327</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="40">
@@ -672,7 +684,7 @@
         <v>12</v>
       </c>
       <c r="D40" t="n">
-        <v>5989</v>
+        <v>6357</v>
       </c>
     </row>
     <row r="41">
@@ -686,7 +698,7 @@
         <v>15</v>
       </c>
       <c r="D41" t="n">
-        <v>7763</v>
+        <v>6167</v>
       </c>
     </row>
     <row r="42">
@@ -700,7 +712,7 @@
         <v>17</v>
       </c>
       <c r="D42" t="n">
-        <v>1928</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="43">
@@ -714,7 +726,7 @@
         <v>19</v>
       </c>
       <c r="D43" t="n">
-        <v>5493</v>
+        <v>10858</v>
       </c>
     </row>
     <row r="44">
@@ -728,7 +740,7 @@
         <v>6</v>
       </c>
       <c r="D44" t="n">
-        <v>8922</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="45">
@@ -742,7 +754,7 @@
         <v>9</v>
       </c>
       <c r="D45" t="n">
-        <v>9639</v>
+        <v>3938</v>
       </c>
     </row>
     <row r="46">
@@ -756,7 +768,7 @@
         <v>12</v>
       </c>
       <c r="D46" t="n">
-        <v>7755</v>
+        <v>3887</v>
       </c>
     </row>
     <row r="47">
@@ -770,7 +782,7 @@
         <v>15</v>
       </c>
       <c r="D47" t="n">
-        <v>2850</v>
+        <v>8942</v>
       </c>
     </row>
     <row r="48">
@@ -784,7 +796,7 @@
         <v>17</v>
       </c>
       <c r="D48" t="n">
-        <v>10910</v>
+        <v>4149</v>
       </c>
     </row>
     <row r="49">
@@ -798,7 +810,7 @@
         <v>19</v>
       </c>
       <c r="D49" t="n">
-        <v>7025</v>
+        <v>9353</v>
       </c>
     </row>
     <row r="50">
@@ -812,7 +824,7 @@
         <v>6</v>
       </c>
       <c r="D50" t="n">
-        <v>2523</v>
+        <v>3685</v>
       </c>
     </row>
     <row r="51">
@@ -826,7 +838,7 @@
         <v>9</v>
       </c>
       <c r="D51" t="n">
-        <v>10768</v>
+        <v>10127</v>
       </c>
     </row>
     <row r="52">
@@ -840,7 +852,7 @@
         <v>12</v>
       </c>
       <c r="D52" t="n">
-        <v>1771</v>
+        <v>4538</v>
       </c>
     </row>
     <row r="53">
@@ -854,7 +866,7 @@
         <v>15</v>
       </c>
       <c r="D53" t="n">
-        <v>4337</v>
+        <v>3307</v>
       </c>
     </row>
     <row r="54">
@@ -868,7 +880,7 @@
         <v>17</v>
       </c>
       <c r="D54" t="n">
-        <v>1533</v>
+        <v>4957</v>
       </c>
     </row>
     <row r="55">
@@ -882,7 +894,7 @@
         <v>19</v>
       </c>
       <c r="D55" t="n">
-        <v>4873</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="56">
@@ -896,7 +908,7 @@
         <v>6</v>
       </c>
       <c r="D56" t="n">
-        <v>8622</v>
+        <v>7055</v>
       </c>
     </row>
     <row r="57">
@@ -910,7 +922,7 @@
         <v>9</v>
       </c>
       <c r="D57" t="n">
-        <v>8515</v>
+        <v>8442</v>
       </c>
     </row>
     <row r="58">
@@ -924,7 +936,7 @@
         <v>12</v>
       </c>
       <c r="D58" t="n">
-        <v>5982</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="59">
@@ -938,7 +950,7 @@
         <v>15</v>
       </c>
       <c r="D59" t="n">
-        <v>7605</v>
+        <v>3325</v>
       </c>
     </row>
     <row r="60">
@@ -952,7 +964,7 @@
         <v>17</v>
       </c>
       <c r="D60" t="n">
-        <v>1011</v>
+        <v>8317</v>
       </c>
     </row>
     <row r="61">
@@ -966,7 +978,7 @@
         <v>19</v>
       </c>
       <c r="D61" t="n">
-        <v>5220</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="62">
@@ -980,7 +992,7 @@
         <v>6</v>
       </c>
       <c r="D62" t="n">
-        <v>5070</v>
+        <v>10001</v>
       </c>
     </row>
     <row r="63">
@@ -994,7 +1006,7 @@
         <v>9</v>
       </c>
       <c r="D63" t="n">
-        <v>2475</v>
+        <v>3062</v>
       </c>
     </row>
     <row r="64">
@@ -1008,7 +1020,7 @@
         <v>12</v>
       </c>
       <c r="D64" t="n">
-        <v>1369</v>
+        <v>10305</v>
       </c>
     </row>
     <row r="65">
@@ -1022,7 +1034,7 @@
         <v>15</v>
       </c>
       <c r="D65" t="n">
-        <v>9338</v>
+        <v>9722</v>
       </c>
     </row>
     <row r="66">
@@ -1036,7 +1048,7 @@
         <v>17</v>
       </c>
       <c r="D66" t="n">
-        <v>10862</v>
+        <v>3355</v>
       </c>
     </row>
     <row r="67">
@@ -1050,7 +1062,7 @@
         <v>19</v>
       </c>
       <c r="D67" t="n">
-        <v>4059</v>
+        <v>8035</v>
       </c>
     </row>
     <row r="68">
@@ -1064,7 +1076,7 @@
         <v>6</v>
       </c>
       <c r="D68" t="n">
-        <v>8648</v>
+        <v>10748</v>
       </c>
     </row>
     <row r="69">
@@ -1078,7 +1090,7 @@
         <v>9</v>
       </c>
       <c r="D69" t="n">
-        <v>10548</v>
+        <v>8774</v>
       </c>
     </row>
     <row r="70">
@@ -1092,7 +1104,7 @@
         <v>12</v>
       </c>
       <c r="D70" t="n">
-        <v>4558</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="71">
@@ -1106,7 +1118,7 @@
         <v>15</v>
       </c>
       <c r="D71" t="n">
-        <v>10009</v>
+        <v>8011</v>
       </c>
     </row>
     <row r="72">
@@ -1120,7 +1132,7 @@
         <v>17</v>
       </c>
       <c r="D72" t="n">
-        <v>2417</v>
+        <v>9920</v>
       </c>
     </row>
     <row r="73">
@@ -1134,7 +1146,7 @@
         <v>19</v>
       </c>
       <c r="D73" t="n">
-        <v>3182</v>
+        <v>10933</v>
       </c>
     </row>
     <row r="74">
@@ -1148,7 +1160,7 @@
         <v>6</v>
       </c>
       <c r="D74" t="n">
-        <v>6251</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="75">
@@ -1162,7 +1174,7 @@
         <v>9</v>
       </c>
       <c r="D75" t="n">
-        <v>9975</v>
+        <v>5809</v>
       </c>
     </row>
     <row r="76">
@@ -1176,7 +1188,7 @@
         <v>12</v>
       </c>
       <c r="D76" t="n">
-        <v>10328</v>
+        <v>3134</v>
       </c>
     </row>
     <row r="77">
@@ -1190,7 +1202,7 @@
         <v>15</v>
       </c>
       <c r="D77" t="n">
-        <v>9524</v>
+        <v>3368</v>
       </c>
     </row>
     <row r="78">
@@ -1204,7 +1216,7 @@
         <v>17</v>
       </c>
       <c r="D78" t="n">
-        <v>7045</v>
+        <v>5438</v>
       </c>
     </row>
     <row r="79">
@@ -1218,7 +1230,7 @@
         <v>19</v>
       </c>
       <c r="D79" t="n">
-        <v>3127</v>
+        <v>10825</v>
       </c>
     </row>
     <row r="80">
@@ -1232,7 +1244,7 @@
         <v>6</v>
       </c>
       <c r="D80" t="n">
-        <v>10813</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="81">
@@ -1246,7 +1258,7 @@
         <v>9</v>
       </c>
       <c r="D81" t="n">
-        <v>3837</v>
+        <v>3583</v>
       </c>
     </row>
     <row r="82">
@@ -1260,7 +1272,7 @@
         <v>12</v>
       </c>
       <c r="D82" t="n">
-        <v>6428</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="83">
@@ -1274,7 +1286,7 @@
         <v>15</v>
       </c>
       <c r="D83" t="n">
-        <v>2079</v>
+        <v>10805</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1300,7 @@
         <v>17</v>
       </c>
       <c r="D84" t="n">
-        <v>5390</v>
+        <v>5460</v>
       </c>
     </row>
     <row r="85">
@@ -1302,7 +1314,7 @@
         <v>19</v>
       </c>
       <c r="D85" t="n">
-        <v>3858</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="86">
@@ -1316,7 +1328,7 @@
         <v>6</v>
       </c>
       <c r="D86" t="n">
-        <v>9359</v>
+        <v>10137</v>
       </c>
     </row>
     <row r="87">
@@ -1330,7 +1342,7 @@
         <v>9</v>
       </c>
       <c r="D87" t="n">
-        <v>1466</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="88">
@@ -1344,7 +1356,7 @@
         <v>12</v>
       </c>
       <c r="D88" t="n">
-        <v>10192</v>
+        <v>4658</v>
       </c>
     </row>
     <row r="89">
@@ -1358,7 +1370,7 @@
         <v>15</v>
       </c>
       <c r="D89" t="n">
-        <v>1469</v>
+        <v>7981</v>
       </c>
     </row>
     <row r="90">
@@ -1372,7 +1384,7 @@
         <v>17</v>
       </c>
       <c r="D90" t="n">
-        <v>3094</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="91">
@@ -1386,7 +1398,7 @@
         <v>19</v>
       </c>
       <c r="D91" t="n">
-        <v>5775</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="92">
@@ -1400,7 +1412,7 @@
         <v>6</v>
       </c>
       <c r="D92" t="n">
-        <v>1106</v>
+        <v>6994</v>
       </c>
     </row>
     <row r="93">
@@ -1414,7 +1426,7 @@
         <v>9</v>
       </c>
       <c r="D93" t="n">
-        <v>8800</v>
+        <v>10337</v>
       </c>
     </row>
     <row r="94">
@@ -1428,7 +1440,7 @@
         <v>12</v>
       </c>
       <c r="D94" t="n">
-        <v>10908</v>
+        <v>6149</v>
       </c>
     </row>
     <row r="95">
@@ -1442,7 +1454,7 @@
         <v>15</v>
       </c>
       <c r="D95" t="n">
-        <v>4974</v>
+        <v>6064</v>
       </c>
     </row>
     <row r="96">
@@ -1456,7 +1468,7 @@
         <v>17</v>
       </c>
       <c r="D96" t="n">
-        <v>5780</v>
+        <v>8380</v>
       </c>
     </row>
     <row r="97">
@@ -1470,7 +1482,7 @@
         <v>19</v>
       </c>
       <c r="D97" t="n">
-        <v>10965</v>
+        <v>8361</v>
       </c>
     </row>
     <row r="98">
@@ -1484,7 +1496,7 @@
         <v>6</v>
       </c>
       <c r="D98" t="n">
-        <v>4430</v>
+        <v>10687</v>
       </c>
     </row>
     <row r="99">
@@ -1498,7 +1510,7 @@
         <v>9</v>
       </c>
       <c r="D99" t="n">
-        <v>10771</v>
+        <v>8722</v>
       </c>
     </row>
     <row r="100">
@@ -1512,7 +1524,7 @@
         <v>12</v>
       </c>
       <c r="D100" t="n">
-        <v>3247</v>
+        <v>6822</v>
       </c>
     </row>
     <row r="101">
@@ -1526,7 +1538,7 @@
         <v>15</v>
       </c>
       <c r="D101" t="n">
-        <v>9251</v>
+        <v>3539</v>
       </c>
     </row>
     <row r="102">
@@ -1540,7 +1552,7 @@
         <v>17</v>
       </c>
       <c r="D102" t="n">
-        <v>10369</v>
+        <v>3841</v>
       </c>
     </row>
     <row r="103">
@@ -1554,7 +1566,7 @@
         <v>19</v>
       </c>
       <c r="D103" t="n">
-        <v>3735</v>
+        <v>7659</v>
       </c>
     </row>
     <row r="104">
@@ -1568,7 +1580,7 @@
         <v>6</v>
       </c>
       <c r="D104" t="n">
-        <v>2894</v>
+        <v>3420</v>
       </c>
     </row>
     <row r="105">
@@ -1582,7 +1594,7 @@
         <v>9</v>
       </c>
       <c r="D105" t="n">
-        <v>8272</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="106">
@@ -1596,7 +1608,7 @@
         <v>12</v>
       </c>
       <c r="D106" t="n">
-        <v>4777</v>
+        <v>9618</v>
       </c>
     </row>
     <row r="107">
@@ -1610,7 +1622,7 @@
         <v>15</v>
       </c>
       <c r="D107" t="n">
-        <v>5924</v>
+        <v>8237</v>
       </c>
     </row>
     <row r="108">
@@ -1624,7 +1636,7 @@
         <v>17</v>
       </c>
       <c r="D108" t="n">
-        <v>1501</v>
+        <v>5278</v>
       </c>
     </row>
     <row r="109">
@@ -1638,7 +1650,7 @@
         <v>19</v>
       </c>
       <c r="D109" t="n">
-        <v>10463</v>
+        <v>10974</v>
       </c>
     </row>
     <row r="110">
@@ -1652,7 +1664,7 @@
         <v>6</v>
       </c>
       <c r="D110" t="n">
-        <v>5856</v>
+        <v>10903</v>
       </c>
     </row>
     <row r="111">
@@ -1666,7 +1678,7 @@
         <v>9</v>
       </c>
       <c r="D111" t="n">
-        <v>4961</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="112">
@@ -1680,7 +1692,7 @@
         <v>12</v>
       </c>
       <c r="D112" t="n">
-        <v>6966</v>
+        <v>9259</v>
       </c>
     </row>
     <row r="113">
@@ -1694,7 +1706,7 @@
         <v>15</v>
       </c>
       <c r="D113" t="n">
-        <v>4508</v>
+        <v>2728</v>
       </c>
     </row>
     <row r="114">
@@ -1708,7 +1720,7 @@
         <v>17</v>
       </c>
       <c r="D114" t="n">
-        <v>2219</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="115">
@@ -1722,7 +1734,7 @@
         <v>19</v>
       </c>
       <c r="D115" t="n">
-        <v>9479</v>
+        <v>7641</v>
       </c>
     </row>
     <row r="116">
@@ -1736,7 +1748,7 @@
         <v>6</v>
       </c>
       <c r="D116" t="n">
-        <v>5309</v>
+        <v>3212</v>
       </c>
     </row>
     <row r="117">
@@ -1750,7 +1762,7 @@
         <v>9</v>
       </c>
       <c r="D117" t="n">
-        <v>6447</v>
+        <v>10605</v>
       </c>
     </row>
     <row r="118">
@@ -1764,7 +1776,7 @@
         <v>12</v>
       </c>
       <c r="D118" t="n">
-        <v>3009</v>
+        <v>5162</v>
       </c>
     </row>
     <row r="119">
@@ -1778,7 +1790,7 @@
         <v>15</v>
       </c>
       <c r="D119" t="n">
-        <v>5441</v>
+        <v>8723</v>
       </c>
     </row>
     <row r="120">
@@ -1792,7 +1804,7 @@
         <v>17</v>
       </c>
       <c r="D120" t="n">
-        <v>9388</v>
+        <v>10192</v>
       </c>
     </row>
     <row r="121">
@@ -1806,7 +1818,7 @@
         <v>19</v>
       </c>
       <c r="D121" t="n">
-        <v>1330</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="122">
@@ -1820,7 +1832,7 @@
         <v>6</v>
       </c>
       <c r="D122" t="n">
-        <v>8275</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="123">
@@ -1834,7 +1846,7 @@
         <v>9</v>
       </c>
       <c r="D123" t="n">
-        <v>2022</v>
+        <v>10015</v>
       </c>
     </row>
     <row r="124">
@@ -1848,7 +1860,7 @@
         <v>12</v>
       </c>
       <c r="D124" t="n">
-        <v>4939</v>
+        <v>4578</v>
       </c>
     </row>
     <row r="125">
@@ -1862,7 +1874,7 @@
         <v>15</v>
       </c>
       <c r="D125" t="n">
-        <v>10048</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="126">
@@ -1876,7 +1888,7 @@
         <v>17</v>
       </c>
       <c r="D126" t="n">
-        <v>3474</v>
+        <v>10475</v>
       </c>
     </row>
     <row r="127">
@@ -1890,7 +1902,7 @@
         <v>19</v>
       </c>
       <c r="D127" t="n">
-        <v>7693</v>
+        <v>5071</v>
       </c>
     </row>
     <row r="128">
@@ -1904,7 +1916,7 @@
         <v>6</v>
       </c>
       <c r="D128" t="n">
-        <v>9120</v>
+        <v>6113</v>
       </c>
     </row>
     <row r="129">
@@ -1918,7 +1930,7 @@
         <v>9</v>
       </c>
       <c r="D129" t="n">
-        <v>1353</v>
+        <v>9682</v>
       </c>
     </row>
     <row r="130">
@@ -1932,7 +1944,7 @@
         <v>12</v>
       </c>
       <c r="D130" t="n">
-        <v>4317</v>
+        <v>3415</v>
       </c>
     </row>
     <row r="131">
@@ -1946,7 +1958,7 @@
         <v>15</v>
       </c>
       <c r="D131" t="n">
-        <v>9087</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="132">
@@ -1960,7 +1972,7 @@
         <v>17</v>
       </c>
       <c r="D132" t="n">
-        <v>4147</v>
+        <v>5901</v>
       </c>
     </row>
     <row r="133">
@@ -1974,7 +1986,7 @@
         <v>19</v>
       </c>
       <c r="D133" t="n">
-        <v>3208</v>
+        <v>5881</v>
       </c>
     </row>
     <row r="134">
@@ -1988,7 +2000,7 @@
         <v>6</v>
       </c>
       <c r="D134" t="n">
-        <v>2747</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="135">
@@ -2002,7 +2014,7 @@
         <v>9</v>
       </c>
       <c r="D135" t="n">
-        <v>4811</v>
+        <v>4122</v>
       </c>
     </row>
     <row r="136">
@@ -2016,7 +2028,7 @@
         <v>12</v>
       </c>
       <c r="D136" t="n">
-        <v>6825</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="137">
@@ -2030,7 +2042,7 @@
         <v>15</v>
       </c>
       <c r="D137" t="n">
-        <v>1890</v>
+        <v>4029</v>
       </c>
     </row>
     <row r="138">
@@ -2044,7 +2056,7 @@
         <v>17</v>
       </c>
       <c r="D138" t="n">
-        <v>5915</v>
+        <v>4809</v>
       </c>
     </row>
     <row r="139">
@@ -2058,7 +2070,7 @@
         <v>19</v>
       </c>
       <c r="D139" t="n">
-        <v>4380</v>
+        <v>3714</v>
       </c>
     </row>
     <row r="140">
@@ -2072,7 +2084,7 @@
         <v>6</v>
       </c>
       <c r="D140" t="n">
-        <v>4316</v>
+        <v>3996</v>
       </c>
     </row>
     <row r="141">
@@ -2086,7 +2098,7 @@
         <v>9</v>
       </c>
       <c r="D141" t="n">
-        <v>4063</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="142">
@@ -2100,7 +2112,7 @@
         <v>12</v>
       </c>
       <c r="D142" t="n">
-        <v>4130</v>
+        <v>8159</v>
       </c>
     </row>
     <row r="143">
@@ -2114,7 +2126,7 @@
         <v>15</v>
       </c>
       <c r="D143" t="n">
-        <v>10677</v>
+        <v>5544</v>
       </c>
     </row>
     <row r="144">
@@ -2128,7 +2140,7 @@
         <v>17</v>
       </c>
       <c r="D144" t="n">
-        <v>8379</v>
+        <v>9602</v>
       </c>
     </row>
     <row r="145">
@@ -2142,7 +2154,7 @@
         <v>19</v>
       </c>
       <c r="D145" t="n">
-        <v>6278</v>
+        <v>4947</v>
       </c>
     </row>
     <row r="146">
@@ -2156,7 +2168,7 @@
         <v>6</v>
       </c>
       <c r="D146" t="n">
-        <v>1653</v>
+        <v>3401</v>
       </c>
     </row>
     <row r="147">
@@ -2170,7 +2182,7 @@
         <v>9</v>
       </c>
       <c r="D147" t="n">
-        <v>3149</v>
+        <v>9619</v>
       </c>
     </row>
     <row r="148">
@@ -2184,7 +2196,7 @@
         <v>12</v>
       </c>
       <c r="D148" t="n">
-        <v>6738</v>
+        <v>9104</v>
       </c>
     </row>
     <row r="149">
@@ -2198,7 +2210,7 @@
         <v>15</v>
       </c>
       <c r="D149" t="n">
-        <v>10066</v>
+        <v>10485</v>
       </c>
     </row>
     <row r="150">
@@ -2212,7 +2224,7 @@
         <v>17</v>
       </c>
       <c r="D150" t="n">
-        <v>6451</v>
+        <v>10488</v>
       </c>
     </row>
     <row r="151">
@@ -2226,7 +2238,7 @@
         <v>19</v>
       </c>
       <c r="D151" t="n">
-        <v>10731</v>
+        <v>9084</v>
       </c>
     </row>
     <row r="152">
@@ -2240,7 +2252,7 @@
         <v>6</v>
       </c>
       <c r="D152" t="n">
-        <v>1718</v>
+        <v>7175</v>
       </c>
     </row>
     <row r="153">
@@ -2254,7 +2266,7 @@
         <v>9</v>
       </c>
       <c r="D153" t="n">
-        <v>8354</v>
+        <v>3831</v>
       </c>
     </row>
     <row r="154">
@@ -2268,7 +2280,7 @@
         <v>12</v>
       </c>
       <c r="D154" t="n">
-        <v>1883</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="155">
@@ -2282,7 +2294,7 @@
         <v>15</v>
       </c>
       <c r="D155" t="n">
-        <v>5072</v>
+        <v>10601</v>
       </c>
     </row>
     <row r="156">
@@ -2296,7 +2308,7 @@
         <v>17</v>
       </c>
       <c r="D156" t="n">
-        <v>1169</v>
+        <v>6148</v>
       </c>
     </row>
     <row r="157">
@@ -2310,7 +2322,7 @@
         <v>19</v>
       </c>
       <c r="D157" t="n">
-        <v>10509</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="158">
@@ -2324,7 +2336,7 @@
         <v>6</v>
       </c>
       <c r="D158" t="n">
-        <v>3369</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="159">
@@ -2338,7 +2350,7 @@
         <v>9</v>
       </c>
       <c r="D159" t="n">
-        <v>10727</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="160">
@@ -2352,7 +2364,7 @@
         <v>12</v>
       </c>
       <c r="D160" t="n">
-        <v>2892</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="161">
@@ -2366,7 +2378,7 @@
         <v>15</v>
       </c>
       <c r="D161" t="n">
-        <v>7060</v>
+        <v>7249</v>
       </c>
     </row>
     <row r="162">
@@ -2380,7 +2392,7 @@
         <v>17</v>
       </c>
       <c r="D162" t="n">
-        <v>5875</v>
+        <v>5604</v>
       </c>
     </row>
     <row r="163">
@@ -2394,7 +2406,7 @@
         <v>19</v>
       </c>
       <c r="D163" t="n">
-        <v>8280</v>
+        <v>9530</v>
       </c>
     </row>
     <row r="164">
@@ -2408,7 +2420,7 @@
         <v>6</v>
       </c>
       <c r="D164" t="n">
-        <v>9192</v>
+        <v>6647</v>
       </c>
     </row>
     <row r="165">
@@ -2422,7 +2434,7 @@
         <v>9</v>
       </c>
       <c r="D165" t="n">
-        <v>1113</v>
+        <v>9138</v>
       </c>
     </row>
     <row r="166">
@@ -2436,7 +2448,7 @@
         <v>12</v>
       </c>
       <c r="D166" t="n">
-        <v>2002</v>
+        <v>5612</v>
       </c>
     </row>
     <row r="167">
@@ -2450,7 +2462,7 @@
         <v>15</v>
       </c>
       <c r="D167" t="n">
-        <v>4617</v>
+        <v>9871</v>
       </c>
     </row>
     <row r="168">
@@ -2464,7 +2476,7 @@
         <v>17</v>
       </c>
       <c r="D168" t="n">
-        <v>1932</v>
+        <v>8379</v>
       </c>
     </row>
     <row r="169">
@@ -2478,7 +2490,7 @@
         <v>19</v>
       </c>
       <c r="D169" t="n">
-        <v>7957</v>
+        <v>10444</v>
       </c>
     </row>
     <row r="170">
@@ -2492,7 +2504,7 @@
         <v>6</v>
       </c>
       <c r="D170" t="n">
-        <v>2699</v>
+        <v>10103</v>
       </c>
     </row>
     <row r="171">
@@ -2506,7 +2518,7 @@
         <v>9</v>
       </c>
       <c r="D171" t="n">
-        <v>3027</v>
+        <v>9369</v>
       </c>
     </row>
     <row r="172">
@@ -2520,7 +2532,7 @@
         <v>12</v>
       </c>
       <c r="D172" t="n">
-        <v>4310</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="173">
@@ -2534,7 +2546,7 @@
         <v>15</v>
       </c>
       <c r="D173" t="n">
-        <v>7571</v>
+        <v>7691</v>
       </c>
     </row>
     <row r="174">
@@ -2548,7 +2560,7 @@
         <v>17</v>
       </c>
       <c r="D174" t="n">
-        <v>2469</v>
+        <v>7736</v>
       </c>
     </row>
     <row r="175">
@@ -2562,7 +2574,7 @@
         <v>19</v>
       </c>
       <c r="D175" t="n">
-        <v>8406</v>
+        <v>3110</v>
       </c>
     </row>
     <row r="176">
@@ -2576,7 +2588,7 @@
         <v>6</v>
       </c>
       <c r="D176" t="n">
-        <v>4989</v>
+        <v>7114</v>
       </c>
     </row>
     <row r="177">
@@ -2590,7 +2602,7 @@
         <v>9</v>
       </c>
       <c r="D177" t="n">
-        <v>9200</v>
+        <v>9569</v>
       </c>
     </row>
     <row r="178">
@@ -2604,7 +2616,7 @@
         <v>12</v>
       </c>
       <c r="D178" t="n">
-        <v>4419</v>
+        <v>8662</v>
       </c>
     </row>
     <row r="179">
@@ -2618,7 +2630,7 @@
         <v>15</v>
       </c>
       <c r="D179" t="n">
-        <v>5961</v>
+        <v>6726</v>
       </c>
     </row>
     <row r="180">
@@ -2632,7 +2644,7 @@
         <v>17</v>
       </c>
       <c r="D180" t="n">
-        <v>8245</v>
+        <v>10695</v>
       </c>
     </row>
     <row r="181">
@@ -2646,7 +2658,7 @@
         <v>19</v>
       </c>
       <c r="D181" t="n">
-        <v>8958</v>
+        <v>3032</v>
       </c>
     </row>
     <row r="182">
@@ -2660,7 +2672,7 @@
         <v>6</v>
       </c>
       <c r="D182" t="n">
-        <v>7144</v>
+        <v>7790</v>
       </c>
     </row>
     <row r="183">
@@ -2674,7 +2686,7 @@
         <v>9</v>
       </c>
       <c r="D183" t="n">
-        <v>10522</v>
+        <v>9303</v>
       </c>
     </row>
     <row r="184">
@@ -2688,7 +2700,7 @@
         <v>12</v>
       </c>
       <c r="D184" t="n">
-        <v>3663</v>
+        <v>8179</v>
       </c>
     </row>
     <row r="185">
@@ -2702,7 +2714,7 @@
         <v>15</v>
       </c>
       <c r="D185" t="n">
-        <v>9311</v>
+        <v>5388</v>
       </c>
     </row>
     <row r="186">
@@ -2716,7 +2728,7 @@
         <v>17</v>
       </c>
       <c r="D186" t="n">
-        <v>6681</v>
+        <v>5214</v>
       </c>
     </row>
     <row r="187">
@@ -2730,7 +2742,7 @@
         <v>19</v>
       </c>
       <c r="D187" t="n">
-        <v>9862</v>
+        <v>5159</v>
       </c>
     </row>
     <row r="188">
@@ -2744,7 +2756,7 @@
         <v>6</v>
       </c>
       <c r="D188" t="n">
-        <v>10756</v>
+        <v>3951</v>
       </c>
     </row>
     <row r="189">
@@ -2758,7 +2770,7 @@
         <v>9</v>
       </c>
       <c r="D189" t="n">
-        <v>4769</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="190">
@@ -2772,7 +2784,7 @@
         <v>12</v>
       </c>
       <c r="D190" t="n">
-        <v>5859</v>
+        <v>4667</v>
       </c>
     </row>
     <row r="191">
@@ -2786,7 +2798,7 @@
         <v>15</v>
       </c>
       <c r="D191" t="n">
-        <v>4219</v>
+        <v>4149</v>
       </c>
     </row>
     <row r="192">
@@ -2800,7 +2812,7 @@
         <v>17</v>
       </c>
       <c r="D192" t="n">
-        <v>8178</v>
+        <v>8952</v>
       </c>
     </row>
     <row r="193">
@@ -2814,7 +2826,7 @@
         <v>19</v>
       </c>
       <c r="D193" t="n">
-        <v>5420</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="194">
@@ -2828,7 +2840,7 @@
         <v>6</v>
       </c>
       <c r="D194" t="n">
-        <v>8451</v>
+        <v>7366</v>
       </c>
     </row>
     <row r="195">
@@ -2842,7 +2854,7 @@
         <v>9</v>
       </c>
       <c r="D195" t="n">
-        <v>7729</v>
+        <v>5902</v>
       </c>
     </row>
     <row r="196">
@@ -2856,7 +2868,7 @@
         <v>12</v>
       </c>
       <c r="D196" t="n">
-        <v>1687</v>
+        <v>4984</v>
       </c>
     </row>
     <row r="197">
@@ -2870,7 +2882,7 @@
         <v>15</v>
       </c>
       <c r="D197" t="n">
-        <v>2506</v>
+        <v>7753</v>
       </c>
     </row>
     <row r="198">
@@ -2884,7 +2896,7 @@
         <v>17</v>
       </c>
       <c r="D198" t="n">
-        <v>4278</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="199">
@@ -2898,7 +2910,7 @@
         <v>19</v>
       </c>
       <c r="D199" t="n">
-        <v>1055</v>
+        <v>6610</v>
       </c>
     </row>
     <row r="200">
@@ -2912,7 +2924,7 @@
         <v>6</v>
       </c>
       <c r="D200" t="n">
-        <v>8907</v>
+        <v>6630</v>
       </c>
     </row>
     <row r="201">
@@ -2926,7 +2938,7 @@
         <v>9</v>
       </c>
       <c r="D201" t="n">
-        <v>5162</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="202">
@@ -2940,7 +2952,7 @@
         <v>12</v>
       </c>
       <c r="D202" t="n">
-        <v>7186</v>
+        <v>7989</v>
       </c>
     </row>
     <row r="203">
@@ -2954,7 +2966,7 @@
         <v>15</v>
       </c>
       <c r="D203" t="n">
-        <v>4516</v>
+        <v>3851</v>
       </c>
     </row>
     <row r="204">
@@ -2968,7 +2980,7 @@
         <v>17</v>
       </c>
       <c r="D204" t="n">
-        <v>2256</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="205">
@@ -2982,7 +2994,7 @@
         <v>19</v>
       </c>
       <c r="D205" t="n">
-        <v>4179</v>
+        <v>4218</v>
       </c>
     </row>
     <row r="206">
@@ -2996,7 +3008,7 @@
         <v>6</v>
       </c>
       <c r="D206" t="n">
-        <v>2131</v>
+        <v>3834</v>
       </c>
     </row>
     <row r="207">
@@ -3010,7 +3022,7 @@
         <v>9</v>
       </c>
       <c r="D207" t="n">
-        <v>7416</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="208">
@@ -3024,7 +3036,7 @@
         <v>12</v>
       </c>
       <c r="D208" t="n">
-        <v>9666</v>
+        <v>5963</v>
       </c>
     </row>
     <row r="209">
@@ -3038,7 +3050,7 @@
         <v>15</v>
       </c>
       <c r="D209" t="n">
-        <v>1897</v>
+        <v>7076</v>
       </c>
     </row>
     <row r="210">
@@ -3052,7 +3064,7 @@
         <v>17</v>
       </c>
       <c r="D210" t="n">
-        <v>4158</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="211">
@@ -3066,7 +3078,7 @@
         <v>19</v>
       </c>
       <c r="D211" t="n">
-        <v>7428</v>
+        <v>7710</v>
       </c>
     </row>
     <row r="212">
@@ -3080,7 +3092,7 @@
         <v>6</v>
       </c>
       <c r="D212" t="n">
-        <v>9061</v>
+        <v>4871</v>
       </c>
     </row>
     <row r="213">
@@ -3094,7 +3106,7 @@
         <v>9</v>
       </c>
       <c r="D213" t="n">
-        <v>8439</v>
+        <v>8410</v>
       </c>
     </row>
     <row r="214">
@@ -3108,7 +3120,7 @@
         <v>12</v>
       </c>
       <c r="D214" t="n">
-        <v>1180</v>
+        <v>10340</v>
       </c>
     </row>
     <row r="215">
@@ -3122,7 +3134,7 @@
         <v>15</v>
       </c>
       <c r="D215" t="n">
-        <v>7904</v>
+        <v>5336</v>
       </c>
     </row>
     <row r="216">
@@ -3136,7 +3148,7 @@
         <v>17</v>
       </c>
       <c r="D216" t="n">
-        <v>4947</v>
+        <v>10326</v>
       </c>
     </row>
     <row r="217">
@@ -3150,7 +3162,7 @@
         <v>19</v>
       </c>
       <c r="D217" t="n">
-        <v>7642</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="218">
@@ -3164,7 +3176,7 @@
         <v>6</v>
       </c>
       <c r="D218" t="n">
-        <v>2714</v>
+        <v>9731</v>
       </c>
     </row>
     <row r="219">
@@ -3178,7 +3190,7 @@
         <v>9</v>
       </c>
       <c r="D219" t="n">
-        <v>3266</v>
+        <v>3897</v>
       </c>
     </row>
     <row r="220">
@@ -3192,7 +3204,7 @@
         <v>12</v>
       </c>
       <c r="D220" t="n">
-        <v>3203</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="221">
@@ -3206,7 +3218,7 @@
         <v>15</v>
       </c>
       <c r="D221" t="n">
-        <v>3115</v>
+        <v>9987</v>
       </c>
     </row>
     <row r="222">
@@ -3220,7 +3232,7 @@
         <v>17</v>
       </c>
       <c r="D222" t="n">
-        <v>6182</v>
+        <v>4978</v>
       </c>
     </row>
     <row r="223">
@@ -3234,7 +3246,7 @@
         <v>19</v>
       </c>
       <c r="D223" t="n">
-        <v>4492</v>
+        <v>3710</v>
       </c>
     </row>
     <row r="224">
@@ -3248,7 +3260,7 @@
         <v>6</v>
       </c>
       <c r="D224" t="n">
-        <v>1801</v>
+        <v>7157</v>
       </c>
     </row>
     <row r="225">
@@ -3262,7 +3274,7 @@
         <v>9</v>
       </c>
       <c r="D225" t="n">
-        <v>5416</v>
+        <v>6066</v>
       </c>
     </row>
     <row r="226">
@@ -3276,7 +3288,7 @@
         <v>12</v>
       </c>
       <c r="D226" t="n">
-        <v>10723</v>
+        <v>9071</v>
       </c>
     </row>
     <row r="227">
@@ -3290,7 +3302,7 @@
         <v>15</v>
       </c>
       <c r="D227" t="n">
-        <v>10623</v>
+        <v>3426</v>
       </c>
     </row>
     <row r="228">
@@ -3304,7 +3316,7 @@
         <v>17</v>
       </c>
       <c r="D228" t="n">
-        <v>10192</v>
+        <v>6773</v>
       </c>
     </row>
     <row r="229">
@@ -3318,7 +3330,7 @@
         <v>19</v>
       </c>
       <c r="D229" t="n">
-        <v>8981</v>
+        <v>9495</v>
       </c>
     </row>
     <row r="230">
@@ -3332,7 +3344,7 @@
         <v>6</v>
       </c>
       <c r="D230" t="n">
-        <v>10400</v>
+        <v>10845</v>
       </c>
     </row>
     <row r="231">
@@ -3346,7 +3358,7 @@
         <v>9</v>
       </c>
       <c r="D231" t="n">
-        <v>4000</v>
+        <v>3691</v>
       </c>
     </row>
     <row r="232">
@@ -3360,7 +3372,7 @@
         <v>12</v>
       </c>
       <c r="D232" t="n">
-        <v>8117</v>
+        <v>10545</v>
       </c>
     </row>
     <row r="233">
@@ -3374,7 +3386,7 @@
         <v>15</v>
       </c>
       <c r="D233" t="n">
-        <v>6198</v>
+        <v>9619</v>
       </c>
     </row>
     <row r="234">
@@ -3388,7 +3400,7 @@
         <v>17</v>
       </c>
       <c r="D234" t="n">
-        <v>9629</v>
+        <v>6012</v>
       </c>
     </row>
     <row r="235">
@@ -3402,7 +3414,7 @@
         <v>19</v>
       </c>
       <c r="D235" t="n">
-        <v>5290</v>
+        <v>4768</v>
       </c>
     </row>
     <row r="236">
@@ -3416,7 +3428,7 @@
         <v>6</v>
       </c>
       <c r="D236" t="n">
-        <v>6383</v>
+        <v>4734</v>
       </c>
     </row>
     <row r="237">
@@ -3430,7 +3442,7 @@
         <v>9</v>
       </c>
       <c r="D237" t="n">
-        <v>10656</v>
+        <v>9279</v>
       </c>
     </row>
     <row r="238">
@@ -3444,7 +3456,7 @@
         <v>12</v>
       </c>
       <c r="D238" t="n">
-        <v>7497</v>
+        <v>8770</v>
       </c>
     </row>
     <row r="239">
@@ -3458,7 +3470,7 @@
         <v>15</v>
       </c>
       <c r="D239" t="n">
-        <v>7654</v>
+        <v>9351</v>
       </c>
     </row>
     <row r="240">
@@ -3472,7 +3484,7 @@
         <v>17</v>
       </c>
       <c r="D240" t="n">
-        <v>10363</v>
+        <v>10523</v>
       </c>
     </row>
     <row r="241">
@@ -3486,7 +3498,7 @@
         <v>19</v>
       </c>
       <c r="D241" t="n">
-        <v>5217</v>
+        <v>4145</v>
       </c>
     </row>
     <row r="242">
@@ -3500,7 +3512,7 @@
         <v>6</v>
       </c>
       <c r="D242" t="n">
-        <v>3365</v>
+        <v>5829</v>
       </c>
     </row>
     <row r="243">
@@ -3514,7 +3526,7 @@
         <v>9</v>
       </c>
       <c r="D243" t="n">
-        <v>2950</v>
+        <v>10838</v>
       </c>
     </row>
     <row r="244">
@@ -3528,7 +3540,7 @@
         <v>12</v>
       </c>
       <c r="D244" t="n">
-        <v>9446</v>
+        <v>4345</v>
       </c>
     </row>
     <row r="245">
@@ -3542,7 +3554,7 @@
         <v>15</v>
       </c>
       <c r="D245" t="n">
-        <v>8937</v>
+        <v>9408</v>
       </c>
     </row>
     <row r="246">
@@ -3556,7 +3568,7 @@
         <v>17</v>
       </c>
       <c r="D246" t="n">
-        <v>4843</v>
+        <v>5495</v>
       </c>
     </row>
     <row r="247">
@@ -3570,7 +3582,7 @@
         <v>19</v>
       </c>
       <c r="D247" t="n">
-        <v>7710</v>
+        <v>9752</v>
       </c>
     </row>
     <row r="248">
@@ -3584,7 +3596,7 @@
         <v>6</v>
       </c>
       <c r="D248" t="n">
-        <v>7234</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="249">
@@ -3598,7 +3610,7 @@
         <v>9</v>
       </c>
       <c r="D249" t="n">
-        <v>10118</v>
+        <v>5211</v>
       </c>
     </row>
     <row r="250">
@@ -3612,7 +3624,7 @@
         <v>12</v>
       </c>
       <c r="D250" t="n">
-        <v>2464</v>
+        <v>9989</v>
       </c>
     </row>
     <row r="251">
@@ -3626,7 +3638,7 @@
         <v>15</v>
       </c>
       <c r="D251" t="n">
-        <v>4128</v>
+        <v>5597</v>
       </c>
     </row>
     <row r="252">
@@ -3640,7 +3652,7 @@
         <v>17</v>
       </c>
       <c r="D252" t="n">
-        <v>9797</v>
+        <v>4250</v>
       </c>
     </row>
     <row r="253">
@@ -3654,7 +3666,7 @@
         <v>19</v>
       </c>
       <c r="D253" t="n">
-        <v>5161</v>
+        <v>6133</v>
       </c>
     </row>
     <row r="254">
@@ -3668,7 +3680,7 @@
         <v>6</v>
       </c>
       <c r="D254" t="n">
-        <v>6785</v>
+        <v>9736</v>
       </c>
     </row>
     <row r="255">
@@ -3682,7 +3694,7 @@
         <v>9</v>
       </c>
       <c r="D255" t="n">
-        <v>6561</v>
+        <v>7326</v>
       </c>
     </row>
     <row r="256">
@@ -3696,7 +3708,7 @@
         <v>12</v>
       </c>
       <c r="D256" t="n">
-        <v>4907</v>
+        <v>5766</v>
       </c>
     </row>
     <row r="257">
@@ -3710,7 +3722,7 @@
         <v>15</v>
       </c>
       <c r="D257" t="n">
-        <v>9038</v>
+        <v>4751</v>
       </c>
     </row>
     <row r="258">
@@ -3724,7 +3736,7 @@
         <v>17</v>
       </c>
       <c r="D258" t="n">
-        <v>5994</v>
+        <v>10567</v>
       </c>
     </row>
     <row r="259">
@@ -3738,7 +3750,7 @@
         <v>19</v>
       </c>
       <c r="D259" t="n">
-        <v>4819</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="260">
@@ -3752,7 +3764,7 @@
         <v>6</v>
       </c>
       <c r="D260" t="n">
-        <v>3586</v>
+        <v>8712</v>
       </c>
     </row>
     <row r="261">
@@ -3766,7 +3778,7 @@
         <v>9</v>
       </c>
       <c r="D261" t="n">
-        <v>9020</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="262">
@@ -3780,7 +3792,7 @@
         <v>12</v>
       </c>
       <c r="D262" t="n">
-        <v>1530</v>
+        <v>3139</v>
       </c>
     </row>
     <row r="263">
@@ -3794,7 +3806,7 @@
         <v>15</v>
       </c>
       <c r="D263" t="n">
-        <v>9060</v>
+        <v>10531</v>
       </c>
     </row>
     <row r="264">
@@ -3808,7 +3820,7 @@
         <v>17</v>
       </c>
       <c r="D264" t="n">
-        <v>5758</v>
+        <v>9134</v>
       </c>
     </row>
     <row r="265">
@@ -3822,7 +3834,7 @@
         <v>19</v>
       </c>
       <c r="D265" t="n">
-        <v>7281</v>
+        <v>9818</v>
       </c>
     </row>
     <row r="266">
@@ -3836,7 +3848,7 @@
         <v>6</v>
       </c>
       <c r="D266" t="n">
-        <v>9501</v>
+        <v>7793</v>
       </c>
     </row>
     <row r="267">
@@ -3850,7 +3862,7 @@
         <v>9</v>
       </c>
       <c r="D267" t="n">
-        <v>9164</v>
+        <v>3807</v>
       </c>
     </row>
     <row r="268">
@@ -3864,7 +3876,7 @@
         <v>12</v>
       </c>
       <c r="D268" t="n">
-        <v>1059</v>
+        <v>5933</v>
       </c>
     </row>
     <row r="269">
@@ -3878,7 +3890,7 @@
         <v>15</v>
       </c>
       <c r="D269" t="n">
-        <v>10796</v>
+        <v>9490</v>
       </c>
     </row>
     <row r="270">
@@ -3892,7 +3904,7 @@
         <v>17</v>
       </c>
       <c r="D270" t="n">
-        <v>4405</v>
+        <v>6390</v>
       </c>
     </row>
     <row r="271">
@@ -3906,7 +3918,7 @@
         <v>19</v>
       </c>
       <c r="D271" t="n">
-        <v>4231</v>
+        <v>6299</v>
       </c>
     </row>
     <row r="272">
@@ -3920,7 +3932,7 @@
         <v>6</v>
       </c>
       <c r="D272" t="n">
-        <v>4716</v>
+        <v>5186</v>
       </c>
     </row>
     <row r="273">
@@ -3934,7 +3946,7 @@
         <v>9</v>
       </c>
       <c r="D273" t="n">
-        <v>6429</v>
+        <v>7284</v>
       </c>
     </row>
     <row r="274">
@@ -3948,7 +3960,7 @@
         <v>12</v>
       </c>
       <c r="D274" t="n">
-        <v>5729</v>
+        <v>7049</v>
       </c>
     </row>
     <row r="275">
@@ -3962,7 +3974,7 @@
         <v>15</v>
       </c>
       <c r="D275" t="n">
-        <v>3797</v>
+        <v>4743</v>
       </c>
     </row>
     <row r="276">
@@ -3976,7 +3988,7 @@
         <v>17</v>
       </c>
       <c r="D276" t="n">
-        <v>4284</v>
+        <v>10235</v>
       </c>
     </row>
     <row r="277">
@@ -3990,7 +4002,7 @@
         <v>19</v>
       </c>
       <c r="D277" t="n">
-        <v>10142</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="278">
@@ -4004,7 +4016,7 @@
         <v>6</v>
       </c>
       <c r="D278" t="n">
-        <v>8505</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="279">
@@ -4018,7 +4030,7 @@
         <v>9</v>
       </c>
       <c r="D279" t="n">
-        <v>2419</v>
+        <v>10148</v>
       </c>
     </row>
     <row r="280">
@@ -4032,7 +4044,7 @@
         <v>12</v>
       </c>
       <c r="D280" t="n">
-        <v>4646</v>
+        <v>9199</v>
       </c>
     </row>
     <row r="281">
@@ -4046,7 +4058,7 @@
         <v>15</v>
       </c>
       <c r="D281" t="n">
-        <v>4900</v>
+        <v>9185</v>
       </c>
     </row>
     <row r="282">
@@ -4060,7 +4072,7 @@
         <v>17</v>
       </c>
       <c r="D282" t="n">
-        <v>9650</v>
+        <v>3692</v>
       </c>
     </row>
     <row r="283">
@@ -4074,7 +4086,7 @@
         <v>19</v>
       </c>
       <c r="D283" t="n">
-        <v>3647</v>
+        <v>8772</v>
       </c>
     </row>
     <row r="284">
@@ -4088,7 +4100,7 @@
         <v>6</v>
       </c>
       <c r="D284" t="n">
-        <v>1196</v>
+        <v>9951</v>
       </c>
     </row>
     <row r="285">
@@ -4102,7 +4114,7 @@
         <v>9</v>
       </c>
       <c r="D285" t="n">
-        <v>7067</v>
+        <v>10360</v>
       </c>
     </row>
     <row r="286">
@@ -4116,7 +4128,7 @@
         <v>12</v>
       </c>
       <c r="D286" t="n">
-        <v>5177</v>
+        <v>3763</v>
       </c>
     </row>
     <row r="287">
@@ -4130,7 +4142,7 @@
         <v>15</v>
       </c>
       <c r="D287" t="n">
-        <v>7159</v>
+        <v>7628</v>
       </c>
     </row>
     <row r="288">
@@ -4144,7 +4156,7 @@
         <v>17</v>
       </c>
       <c r="D288" t="n">
-        <v>2847</v>
+        <v>10579</v>
       </c>
     </row>
     <row r="289">
@@ -4158,7 +4170,7 @@
         <v>19</v>
       </c>
       <c r="D289" t="n">
-        <v>8906</v>
+        <v>6735</v>
       </c>
     </row>
     <row r="290">
@@ -4172,7 +4184,7 @@
         <v>6</v>
       </c>
       <c r="D290" t="n">
-        <v>9898</v>
+        <v>5343</v>
       </c>
     </row>
     <row r="291">
@@ -4186,7 +4198,7 @@
         <v>9</v>
       </c>
       <c r="D291" t="n">
-        <v>3983</v>
+        <v>5066</v>
       </c>
     </row>
     <row r="292">
@@ -4200,7 +4212,7 @@
         <v>12</v>
       </c>
       <c r="D292" t="n">
-        <v>4451</v>
+        <v>5132</v>
       </c>
     </row>
     <row r="293">
@@ -4214,7 +4226,7 @@
         <v>15</v>
       </c>
       <c r="D293" t="n">
-        <v>2045</v>
+        <v>4205</v>
       </c>
     </row>
     <row r="294">
@@ -4228,7 +4240,7 @@
         <v>17</v>
       </c>
       <c r="D294" t="n">
-        <v>6302</v>
+        <v>3458</v>
       </c>
     </row>
     <row r="295">
@@ -4242,7 +4254,7 @@
         <v>19</v>
       </c>
       <c r="D295" t="n">
-        <v>8107</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="296">
@@ -4256,7 +4268,7 @@
         <v>6</v>
       </c>
       <c r="D296" t="n">
-        <v>10140</v>
+        <v>4844</v>
       </c>
     </row>
     <row r="297">
@@ -4270,7 +4282,7 @@
         <v>9</v>
       </c>
       <c r="D297" t="n">
-        <v>6571</v>
+        <v>4373</v>
       </c>
     </row>
     <row r="298">
@@ -4284,7 +4296,7 @@
         <v>12</v>
       </c>
       <c r="D298" t="n">
-        <v>6418</v>
+        <v>9326</v>
       </c>
     </row>
     <row r="299">
@@ -4298,7 +4310,7 @@
         <v>15</v>
       </c>
       <c r="D299" t="n">
-        <v>10642</v>
+        <v>6646</v>
       </c>
     </row>
     <row r="300">
@@ -4312,7 +4324,7 @@
         <v>17</v>
       </c>
       <c r="D300" t="n">
-        <v>2319</v>
+        <v>6900</v>
       </c>
     </row>
     <row r="301">
@@ -4326,7 +4338,7 @@
         <v>19</v>
       </c>
       <c r="D301" t="n">
-        <v>6166</v>
+        <v>3721</v>
       </c>
     </row>
     <row r="302">
@@ -4340,7 +4352,7 @@
         <v>6</v>
       </c>
       <c r="D302" t="n">
-        <v>7631</v>
+        <v>7264</v>
       </c>
     </row>
     <row r="303">
@@ -4354,7 +4366,7 @@
         <v>9</v>
       </c>
       <c r="D303" t="n">
-        <v>1135</v>
+        <v>4571</v>
       </c>
     </row>
     <row r="304">
@@ -4368,7 +4380,7 @@
         <v>12</v>
       </c>
       <c r="D304" t="n">
-        <v>2103</v>
+        <v>7263</v>
       </c>
     </row>
     <row r="305">
@@ -4382,7 +4394,7 @@
         <v>15</v>
       </c>
       <c r="D305" t="n">
-        <v>10121</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="306">
@@ -4396,7 +4408,7 @@
         <v>17</v>
       </c>
       <c r="D306" t="n">
-        <v>9457</v>
+        <v>5392</v>
       </c>
     </row>
     <row r="307">
@@ -4410,7 +4422,7 @@
         <v>19</v>
       </c>
       <c r="D307" t="n">
-        <v>6482</v>
+        <v>5401</v>
       </c>
     </row>
     <row r="308">
@@ -4424,7 +4436,7 @@
         <v>6</v>
       </c>
       <c r="D308" t="n">
-        <v>1774</v>
+        <v>5127</v>
       </c>
     </row>
     <row r="309">
@@ -4438,7 +4450,7 @@
         <v>9</v>
       </c>
       <c r="D309" t="n">
-        <v>3054</v>
+        <v>4848</v>
       </c>
     </row>
     <row r="310">
@@ -4452,7 +4464,7 @@
         <v>12</v>
       </c>
       <c r="D310" t="n">
-        <v>7142</v>
+        <v>5762</v>
       </c>
     </row>
     <row r="311">
@@ -4466,7 +4478,7 @@
         <v>15</v>
       </c>
       <c r="D311" t="n">
-        <v>6716</v>
+        <v>9546</v>
       </c>
     </row>
     <row r="312">
@@ -4480,7 +4492,7 @@
         <v>17</v>
       </c>
       <c r="D312" t="n">
-        <v>1660</v>
+        <v>10610</v>
       </c>
     </row>
     <row r="313">
@@ -4494,7 +4506,7 @@
         <v>19</v>
       </c>
       <c r="D313" t="n">
-        <v>8549</v>
+        <v>7494</v>
       </c>
     </row>
     <row r="314">
@@ -4508,7 +4520,7 @@
         <v>6</v>
       </c>
       <c r="D314" t="n">
-        <v>1643</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="315">
@@ -4522,7 +4534,7 @@
         <v>9</v>
       </c>
       <c r="D315" t="n">
-        <v>10484</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="316">
@@ -4536,7 +4548,7 @@
         <v>12</v>
       </c>
       <c r="D316" t="n">
-        <v>2384</v>
+        <v>5701</v>
       </c>
     </row>
     <row r="317">
@@ -4550,7 +4562,7 @@
         <v>15</v>
       </c>
       <c r="D317" t="n">
-        <v>7897</v>
+        <v>8353</v>
       </c>
     </row>
     <row r="318">
@@ -4564,7 +4576,7 @@
         <v>17</v>
       </c>
       <c r="D318" t="n">
-        <v>8845</v>
+        <v>3867</v>
       </c>
     </row>
     <row r="319">
@@ -4578,7 +4590,7 @@
         <v>19</v>
       </c>
       <c r="D319" t="n">
-        <v>8607</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="320">
@@ -4592,7 +4604,7 @@
         <v>6</v>
       </c>
       <c r="D320" t="n">
-        <v>9447</v>
+        <v>3663</v>
       </c>
     </row>
     <row r="321">
@@ -4606,7 +4618,7 @@
         <v>9</v>
       </c>
       <c r="D321" t="n">
-        <v>10762</v>
+        <v>3032</v>
       </c>
     </row>
     <row r="322">
@@ -4620,7 +4632,7 @@
         <v>12</v>
       </c>
       <c r="D322" t="n">
-        <v>8801</v>
+        <v>10233</v>
       </c>
     </row>
     <row r="323">
@@ -4634,7 +4646,7 @@
         <v>15</v>
       </c>
       <c r="D323" t="n">
-        <v>4556</v>
+        <v>9962</v>
       </c>
     </row>
     <row r="324">
@@ -4648,7 +4660,7 @@
         <v>17</v>
       </c>
       <c r="D324" t="n">
-        <v>2499</v>
+        <v>4485</v>
       </c>
     </row>
     <row r="325">
@@ -4662,7 +4674,7 @@
         <v>19</v>
       </c>
       <c r="D325" t="n">
-        <v>9929</v>
+        <v>5723</v>
       </c>
     </row>
     <row r="326">
@@ -4676,7 +4688,7 @@
         <v>6</v>
       </c>
       <c r="D326" t="n">
-        <v>9018</v>
+        <v>4943</v>
       </c>
     </row>
     <row r="327">
@@ -4690,7 +4702,7 @@
         <v>9</v>
       </c>
       <c r="D327" t="n">
-        <v>5534</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="328">
@@ -4704,7 +4716,7 @@
         <v>12</v>
       </c>
       <c r="D328" t="n">
-        <v>3704</v>
+        <v>7089</v>
       </c>
     </row>
     <row r="329">
@@ -4718,7 +4730,7 @@
         <v>15</v>
       </c>
       <c r="D329" t="n">
-        <v>3844</v>
+        <v>3839</v>
       </c>
     </row>
     <row r="330">
@@ -4732,7 +4744,7 @@
         <v>17</v>
       </c>
       <c r="D330" t="n">
-        <v>2901</v>
+        <v>10165</v>
       </c>
     </row>
     <row r="331">
@@ -4746,7 +4758,7 @@
         <v>19</v>
       </c>
       <c r="D331" t="n">
-        <v>10468</v>
+        <v>7993</v>
       </c>
     </row>
     <row r="332">
@@ -4760,7 +4772,7 @@
         <v>6</v>
       </c>
       <c r="D332" t="n">
-        <v>7742</v>
+        <v>8428</v>
       </c>
     </row>
     <row r="333">
@@ -4774,7 +4786,7 @@
         <v>9</v>
       </c>
       <c r="D333" t="n">
-        <v>3063</v>
+        <v>3805</v>
       </c>
     </row>
     <row r="334">
@@ -4788,7 +4800,7 @@
         <v>12</v>
       </c>
       <c r="D334" t="n">
-        <v>1349</v>
+        <v>6374</v>
       </c>
     </row>
     <row r="335">
@@ -4802,7 +4814,7 @@
         <v>15</v>
       </c>
       <c r="D335" t="n">
-        <v>7286</v>
+        <v>5636</v>
       </c>
     </row>
     <row r="336">
@@ -4816,7 +4828,7 @@
         <v>17</v>
       </c>
       <c r="D336" t="n">
-        <v>6343</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="337">
@@ -4830,7 +4842,7 @@
         <v>19</v>
       </c>
       <c r="D337" t="n">
-        <v>9897</v>
+        <v>5858</v>
       </c>
     </row>
     <row r="338">
@@ -4844,7 +4856,7 @@
         <v>6</v>
       </c>
       <c r="D338" t="n">
-        <v>8535</v>
+        <v>6206</v>
       </c>
     </row>
     <row r="339">
@@ -4858,7 +4870,7 @@
         <v>9</v>
       </c>
       <c r="D339" t="n">
-        <v>2415</v>
+        <v>6700</v>
       </c>
     </row>
     <row r="340">
@@ -4872,7 +4884,7 @@
         <v>12</v>
       </c>
       <c r="D340" t="n">
-        <v>9180</v>
+        <v>8330</v>
       </c>
     </row>
     <row r="341">
@@ -4886,7 +4898,7 @@
         <v>15</v>
       </c>
       <c r="D341" t="n">
-        <v>4640</v>
+        <v>3690</v>
       </c>
     </row>
     <row r="342">
@@ -4900,7 +4912,7 @@
         <v>17</v>
       </c>
       <c r="D342" t="n">
-        <v>6143</v>
+        <v>5196</v>
       </c>
     </row>
     <row r="343">
@@ -4914,7 +4926,7 @@
         <v>19</v>
       </c>
       <c r="D343" t="n">
-        <v>3393</v>
+        <v>7185</v>
       </c>
     </row>
     <row r="344">
@@ -4928,7 +4940,7 @@
         <v>6</v>
       </c>
       <c r="D344" t="n">
-        <v>9470</v>
+        <v>6709</v>
       </c>
     </row>
     <row r="345">
@@ -4942,7 +4954,7 @@
         <v>9</v>
       </c>
       <c r="D345" t="n">
-        <v>4398</v>
+        <v>4528</v>
       </c>
     </row>
     <row r="346">
@@ -4956,7 +4968,7 @@
         <v>12</v>
       </c>
       <c r="D346" t="n">
-        <v>2356</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="347">
@@ -4970,7 +4982,7 @@
         <v>15</v>
       </c>
       <c r="D347" t="n">
-        <v>3404</v>
+        <v>3697</v>
       </c>
     </row>
     <row r="348">
@@ -4984,7 +4996,7 @@
         <v>17</v>
       </c>
       <c r="D348" t="n">
-        <v>3076</v>
+        <v>10806</v>
       </c>
     </row>
     <row r="349">
@@ -4998,7 +5010,7 @@
         <v>19</v>
       </c>
       <c r="D349" t="n">
-        <v>2024</v>
+        <v>6034</v>
       </c>
     </row>
     <row r="350">
@@ -5012,7 +5024,7 @@
         <v>6</v>
       </c>
       <c r="D350" t="n">
-        <v>4465</v>
+        <v>9625</v>
       </c>
     </row>
     <row r="351">
@@ -5026,7 +5038,7 @@
         <v>9</v>
       </c>
       <c r="D351" t="n">
-        <v>7216</v>
+        <v>8402</v>
       </c>
     </row>
     <row r="352">
@@ -5040,7 +5052,7 @@
         <v>12</v>
       </c>
       <c r="D352" t="n">
-        <v>6456</v>
+        <v>6326</v>
       </c>
     </row>
     <row r="353">
@@ -5054,7 +5066,7 @@
         <v>15</v>
       </c>
       <c r="D353" t="n">
-        <v>3096</v>
+        <v>4171</v>
       </c>
     </row>
     <row r="354">
@@ -5068,7 +5080,7 @@
         <v>17</v>
       </c>
       <c r="D354" t="n">
-        <v>5772</v>
+        <v>6169</v>
       </c>
     </row>
     <row r="355">
@@ -5082,7 +5094,7 @@
         <v>19</v>
       </c>
       <c r="D355" t="n">
-        <v>9954</v>
+        <v>10930</v>
       </c>
     </row>
     <row r="356">
@@ -5096,7 +5108,7 @@
         <v>6</v>
       </c>
       <c r="D356" t="n">
-        <v>7575</v>
+        <v>2962</v>
       </c>
     </row>
     <row r="357">
@@ -5110,7 +5122,7 @@
         <v>9</v>
       </c>
       <c r="D357" t="n">
-        <v>1153</v>
+        <v>3385</v>
       </c>
     </row>
     <row r="358">
@@ -5124,7 +5136,7 @@
         <v>12</v>
       </c>
       <c r="D358" t="n">
-        <v>9577</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="359">
@@ -5138,7 +5150,7 @@
         <v>15</v>
       </c>
       <c r="D359" t="n">
-        <v>8529</v>
+        <v>9017</v>
       </c>
     </row>
     <row r="360">
@@ -5152,7 +5164,7 @@
         <v>17</v>
       </c>
       <c r="D360" t="n">
-        <v>3594</v>
+        <v>5160</v>
       </c>
     </row>
     <row r="361">
@@ -5166,7 +5178,7 @@
         <v>19</v>
       </c>
       <c r="D361" t="n">
-        <v>2787</v>
+        <v>5890</v>
       </c>
     </row>
     <row r="362">
@@ -5180,7 +5192,7 @@
         <v>6</v>
       </c>
       <c r="D362" t="n">
-        <v>4562</v>
+        <v>7907</v>
       </c>
     </row>
     <row r="363">
@@ -5194,7 +5206,7 @@
         <v>9</v>
       </c>
       <c r="D363" t="n">
-        <v>6136</v>
+        <v>3272</v>
       </c>
     </row>
     <row r="364">
@@ -5208,7 +5220,7 @@
         <v>12</v>
       </c>
       <c r="D364" t="n">
-        <v>2193</v>
+        <v>4471</v>
       </c>
     </row>
     <row r="365">
@@ -5222,7 +5234,7 @@
         <v>15</v>
       </c>
       <c r="D365" t="n">
-        <v>6238</v>
+        <v>6454</v>
       </c>
     </row>
     <row r="366">
@@ -5236,7 +5248,7 @@
         <v>17</v>
       </c>
       <c r="D366" t="n">
-        <v>4676</v>
+        <v>4046</v>
       </c>
     </row>
     <row r="367">
@@ -5250,7 +5262,7 @@
         <v>19</v>
       </c>
       <c r="D367" t="n">
-        <v>5365</v>
+        <v>9973</v>
       </c>
     </row>
     <row r="368">
@@ -5264,7 +5276,7 @@
         <v>6</v>
       </c>
       <c r="D368" t="n">
-        <v>5812</v>
+        <v>7983</v>
       </c>
     </row>
     <row r="369">
@@ -5278,7 +5290,7 @@
         <v>9</v>
       </c>
       <c r="D369" t="n">
-        <v>3276</v>
+        <v>7386</v>
       </c>
     </row>
     <row r="370">
@@ -5292,7 +5304,7 @@
         <v>12</v>
       </c>
       <c r="D370" t="n">
-        <v>9215</v>
+        <v>9723</v>
       </c>
     </row>
     <row r="371">
@@ -5306,7 +5318,7 @@
         <v>15</v>
       </c>
       <c r="D371" t="n">
-        <v>3765</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="372">
@@ -5320,7 +5332,7 @@
         <v>17</v>
       </c>
       <c r="D372" t="n">
-        <v>8040</v>
+        <v>6163</v>
       </c>
     </row>
     <row r="373">
@@ -5334,7 +5346,7 @@
         <v>19</v>
       </c>
       <c r="D373" t="n">
-        <v>7623</v>
+        <v>10277</v>
       </c>
     </row>
     <row r="374">
@@ -5348,7 +5360,7 @@
         <v>6</v>
       </c>
       <c r="D374" t="n">
-        <v>3386</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="375">
@@ -5362,7 +5374,7 @@
         <v>9</v>
       </c>
       <c r="D375" t="n">
-        <v>5350</v>
+        <v>3877</v>
       </c>
     </row>
     <row r="376">
@@ -5376,7 +5388,7 @@
         <v>12</v>
       </c>
       <c r="D376" t="n">
-        <v>2726</v>
+        <v>7053</v>
       </c>
     </row>
     <row r="377">
@@ -5390,7 +5402,7 @@
         <v>15</v>
       </c>
       <c r="D377" t="n">
-        <v>3437</v>
+        <v>8721</v>
       </c>
     </row>
     <row r="378">
@@ -5404,7 +5416,7 @@
         <v>17</v>
       </c>
       <c r="D378" t="n">
-        <v>5828</v>
+        <v>8653</v>
       </c>
     </row>
     <row r="379">
@@ -5418,7 +5430,7 @@
         <v>19</v>
       </c>
       <c r="D379" t="n">
-        <v>6588</v>
+        <v>10609</v>
       </c>
     </row>
     <row r="380">
@@ -5432,7 +5444,7 @@
         <v>6</v>
       </c>
       <c r="D380" t="n">
-        <v>9586</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="381">
@@ -5446,7 +5458,7 @@
         <v>9</v>
       </c>
       <c r="D381" t="n">
-        <v>2795</v>
+        <v>3550</v>
       </c>
     </row>
     <row r="382">
@@ -5460,7 +5472,7 @@
         <v>12</v>
       </c>
       <c r="D382" t="n">
-        <v>3707</v>
+        <v>3662</v>
       </c>
     </row>
     <row r="383">
@@ -5474,7 +5486,7 @@
         <v>15</v>
       </c>
       <c r="D383" t="n">
-        <v>9162</v>
+        <v>9796</v>
       </c>
     </row>
     <row r="384">
@@ -5488,7 +5500,7 @@
         <v>17</v>
       </c>
       <c r="D384" t="n">
-        <v>6535</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="385">
@@ -5502,7 +5514,7 @@
         <v>19</v>
       </c>
       <c r="D385" t="n">
-        <v>7143</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="386">
@@ -5516,7 +5528,7 @@
         <v>6</v>
       </c>
       <c r="D386" t="n">
-        <v>4682</v>
+        <v>8998</v>
       </c>
     </row>
     <row r="387">
@@ -5530,7 +5542,7 @@
         <v>9</v>
       </c>
       <c r="D387" t="n">
-        <v>5015</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="388">
@@ -5544,7 +5556,7 @@
         <v>12</v>
       </c>
       <c r="D388" t="n">
-        <v>1659</v>
+        <v>5124</v>
       </c>
     </row>
     <row r="389">
@@ -5558,7 +5570,7 @@
         <v>15</v>
       </c>
       <c r="D389" t="n">
-        <v>2180</v>
+        <v>10835</v>
       </c>
     </row>
     <row r="390">
@@ -5572,7 +5584,7 @@
         <v>17</v>
       </c>
       <c r="D390" t="n">
-        <v>6483</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="391">
@@ -5586,7 +5598,7 @@
         <v>19</v>
       </c>
       <c r="D391" t="n">
-        <v>6426</v>
+        <v>5601</v>
       </c>
     </row>
     <row r="392">
@@ -5600,7 +5612,7 @@
         <v>6</v>
       </c>
       <c r="D392" t="n">
-        <v>8615</v>
+        <v>4751</v>
       </c>
     </row>
     <row r="393">
@@ -5614,7 +5626,7 @@
         <v>9</v>
       </c>
       <c r="D393" t="n">
-        <v>6770</v>
+        <v>4498</v>
       </c>
     </row>
     <row r="394">
@@ -5628,7 +5640,7 @@
         <v>12</v>
       </c>
       <c r="D394" t="n">
-        <v>3988</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="395">
@@ -5642,7 +5654,7 @@
         <v>15</v>
       </c>
       <c r="D395" t="n">
-        <v>7771</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="396">
@@ -5656,7 +5668,7 @@
         <v>17</v>
       </c>
       <c r="D396" t="n">
-        <v>2709</v>
+        <v>5202</v>
       </c>
     </row>
     <row r="397">
@@ -5670,7 +5682,7 @@
         <v>19</v>
       </c>
       <c r="D397" t="n">
-        <v>4322</v>
+        <v>3909</v>
       </c>
     </row>
     <row r="398">
@@ -5684,7 +5696,7 @@
         <v>6</v>
       </c>
       <c r="D398" t="n">
-        <v>1615</v>
+        <v>3816</v>
       </c>
     </row>
     <row r="399">
@@ -5698,7 +5710,7 @@
         <v>9</v>
       </c>
       <c r="D399" t="n">
-        <v>10003</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="400">
@@ -5712,7 +5724,7 @@
         <v>12</v>
       </c>
       <c r="D400" t="n">
-        <v>5439</v>
+        <v>5485</v>
       </c>
     </row>
     <row r="401">
@@ -5726,7 +5738,7 @@
         <v>15</v>
       </c>
       <c r="D401" t="n">
-        <v>8503</v>
+        <v>6816</v>
       </c>
     </row>
     <row r="402">
@@ -5740,7 +5752,7 @@
         <v>17</v>
       </c>
       <c r="D402" t="n">
-        <v>1232</v>
+        <v>4117</v>
       </c>
     </row>
     <row r="403">
@@ -5754,7 +5766,7 @@
         <v>19</v>
       </c>
       <c r="D403" t="n">
-        <v>7407</v>
+        <v>6569</v>
       </c>
     </row>
     <row r="404">
@@ -5768,7 +5780,7 @@
         <v>6</v>
       </c>
       <c r="D404" t="n">
-        <v>9900</v>
+        <v>9375</v>
       </c>
     </row>
     <row r="405">
@@ -5782,7 +5794,7 @@
         <v>9</v>
       </c>
       <c r="D405" t="n">
-        <v>9383</v>
+        <v>10353</v>
       </c>
     </row>
     <row r="406">
@@ -5796,7 +5808,7 @@
         <v>12</v>
       </c>
       <c r="D406" t="n">
-        <v>7963</v>
+        <v>8864</v>
       </c>
     </row>
     <row r="407">
@@ -5810,7 +5822,7 @@
         <v>15</v>
       </c>
       <c r="D407" t="n">
-        <v>6002</v>
+        <v>3133</v>
       </c>
     </row>
     <row r="408">
@@ -5824,7 +5836,7 @@
         <v>17</v>
       </c>
       <c r="D408" t="n">
-        <v>5005</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="409">
@@ -5838,7 +5850,7 @@
         <v>19</v>
       </c>
       <c r="D409" t="n">
-        <v>4350</v>
+        <v>3089</v>
       </c>
     </row>
     <row r="410">
@@ -5852,7 +5864,7 @@
         <v>6</v>
       </c>
       <c r="D410" t="n">
-        <v>10383</v>
+        <v>8404</v>
       </c>
     </row>
     <row r="411">
@@ -5866,7 +5878,7 @@
         <v>9</v>
       </c>
       <c r="D411" t="n">
-        <v>5775</v>
+        <v>10567</v>
       </c>
     </row>
     <row r="412">
@@ -5880,7 +5892,7 @@
         <v>12</v>
       </c>
       <c r="D412" t="n">
-        <v>8801</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="413">
@@ -5894,7 +5906,7 @@
         <v>15</v>
       </c>
       <c r="D413" t="n">
-        <v>5324</v>
+        <v>9184</v>
       </c>
     </row>
     <row r="414">
@@ -5908,7 +5920,7 @@
         <v>17</v>
       </c>
       <c r="D414" t="n">
-        <v>6968</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="415">
@@ -5922,7 +5934,7 @@
         <v>19</v>
       </c>
       <c r="D415" t="n">
-        <v>6785</v>
+        <v>3597</v>
       </c>
     </row>
     <row r="416">
@@ -5936,7 +5948,7 @@
         <v>6</v>
       </c>
       <c r="D416" t="n">
-        <v>1923</v>
+        <v>2965</v>
       </c>
     </row>
     <row r="417">
@@ -5950,7 +5962,7 @@
         <v>9</v>
       </c>
       <c r="D417" t="n">
-        <v>7040</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="418">
@@ -5964,7 +5976,7 @@
         <v>12</v>
       </c>
       <c r="D418" t="n">
-        <v>9237</v>
+        <v>7760</v>
       </c>
     </row>
     <row r="419">
@@ -5978,7 +5990,7 @@
         <v>15</v>
       </c>
       <c r="D419" t="n">
-        <v>4642</v>
+        <v>8239</v>
       </c>
     </row>
     <row r="420">
@@ -5992,7 +6004,7 @@
         <v>17</v>
       </c>
       <c r="D420" t="n">
-        <v>1194</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="421">
@@ -6006,7 +6018,7 @@
         <v>19</v>
       </c>
       <c r="D421" t="n">
-        <v>1830</v>
+        <v>10308</v>
       </c>
     </row>
     <row r="422">
@@ -6020,7 +6032,7 @@
         <v>6</v>
       </c>
       <c r="D422" t="n">
-        <v>5414</v>
+        <v>6736</v>
       </c>
     </row>
     <row r="423">
@@ -6034,7 +6046,7 @@
         <v>9</v>
       </c>
       <c r="D423" t="n">
-        <v>8150</v>
+        <v>7046</v>
       </c>
     </row>
     <row r="424">
@@ -6048,7 +6060,7 @@
         <v>12</v>
       </c>
       <c r="D424" t="n">
-        <v>4613</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="425">
@@ -6062,7 +6074,7 @@
         <v>15</v>
       </c>
       <c r="D425" t="n">
-        <v>6423</v>
+        <v>8798</v>
       </c>
     </row>
     <row r="426">
@@ -6076,7 +6088,7 @@
         <v>17</v>
       </c>
       <c r="D426" t="n">
-        <v>9507</v>
+        <v>9471</v>
       </c>
     </row>
     <row r="427">
@@ -6090,7 +6102,7 @@
         <v>19</v>
       </c>
       <c r="D427" t="n">
-        <v>8122</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="428">
@@ -6104,7 +6116,7 @@
         <v>6</v>
       </c>
       <c r="D428" t="n">
-        <v>9437</v>
+        <v>7817</v>
       </c>
     </row>
     <row r="429">
@@ -6118,7 +6130,7 @@
         <v>9</v>
       </c>
       <c r="D429" t="n">
-        <v>3671</v>
+        <v>7084</v>
       </c>
     </row>
     <row r="430">
@@ -6132,7 +6144,7 @@
         <v>12</v>
       </c>
       <c r="D430" t="n">
-        <v>1273</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="431">
@@ -6146,7 +6158,7 @@
         <v>15</v>
       </c>
       <c r="D431" t="n">
-        <v>1962</v>
+        <v>4204</v>
       </c>
     </row>
     <row r="432">
@@ -6160,7 +6172,7 @@
         <v>17</v>
       </c>
       <c r="D432" t="n">
-        <v>3914</v>
+        <v>9171</v>
       </c>
     </row>
     <row r="433">
@@ -6174,7 +6186,7 @@
         <v>19</v>
       </c>
       <c r="D433" t="n">
-        <v>8358</v>
+        <v>9672</v>
       </c>
     </row>
     <row r="434">
@@ -6188,7 +6200,7 @@
         <v>6</v>
       </c>
       <c r="D434" t="n">
-        <v>7989</v>
+        <v>6449</v>
       </c>
     </row>
     <row r="435">
@@ -6202,7 +6214,7 @@
         <v>9</v>
       </c>
       <c r="D435" t="n">
-        <v>2212</v>
+        <v>4021</v>
       </c>
     </row>
     <row r="436">
@@ -6216,7 +6228,7 @@
         <v>12</v>
       </c>
       <c r="D436" t="n">
-        <v>7630</v>
+        <v>3098</v>
       </c>
     </row>
     <row r="437">
@@ -6230,7 +6242,7 @@
         <v>15</v>
       </c>
       <c r="D437" t="n">
-        <v>4138</v>
+        <v>8724</v>
       </c>
     </row>
     <row r="438">
@@ -6244,7 +6256,7 @@
         <v>17</v>
       </c>
       <c r="D438" t="n">
-        <v>10769</v>
+        <v>8068</v>
       </c>
     </row>
     <row r="439">
@@ -6258,7 +6270,7 @@
         <v>19</v>
       </c>
       <c r="D439" t="n">
-        <v>4146</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="440">
@@ -6272,7 +6284,7 @@
         <v>6</v>
       </c>
       <c r="D440" t="n">
-        <v>6550</v>
+        <v>5565</v>
       </c>
     </row>
     <row r="441">
@@ -6286,7 +6298,7 @@
         <v>9</v>
       </c>
       <c r="D441" t="n">
-        <v>7436</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="442">
@@ -6300,7 +6312,7 @@
         <v>12</v>
       </c>
       <c r="D442" t="n">
-        <v>10244</v>
+        <v>5831</v>
       </c>
     </row>
     <row r="443">
@@ -6314,7 +6326,7 @@
         <v>15</v>
       </c>
       <c r="D443" t="n">
-        <v>10362</v>
+        <v>8280</v>
       </c>
     </row>
     <row r="444">
@@ -6328,7 +6340,7 @@
         <v>17</v>
       </c>
       <c r="D444" t="n">
-        <v>4670</v>
+        <v>7968</v>
       </c>
     </row>
     <row r="445">
@@ -6342,7 +6354,7 @@
         <v>19</v>
       </c>
       <c r="D445" t="n">
-        <v>1603</v>
+        <v>5741</v>
       </c>
     </row>
     <row r="446">
@@ -6356,7 +6368,7 @@
         <v>6</v>
       </c>
       <c r="D446" t="n">
-        <v>7690</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="447">
@@ -6370,7 +6382,7 @@
         <v>9</v>
       </c>
       <c r="D447" t="n">
-        <v>1060</v>
+        <v>3062</v>
       </c>
     </row>
     <row r="448">
@@ -6384,7 +6396,7 @@
         <v>12</v>
       </c>
       <c r="D448" t="n">
-        <v>10846</v>
+        <v>10673</v>
       </c>
     </row>
     <row r="449">
@@ -6398,7 +6410,7 @@
         <v>15</v>
       </c>
       <c r="D449" t="n">
-        <v>5780</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="450">
@@ -6412,7 +6424,7 @@
         <v>17</v>
       </c>
       <c r="D450" t="n">
-        <v>6812</v>
+        <v>4712</v>
       </c>
     </row>
     <row r="451">
@@ -6426,7 +6438,7 @@
         <v>19</v>
       </c>
       <c r="D451" t="n">
-        <v>8034</v>
+        <v>3110</v>
       </c>
     </row>
     <row r="452">
@@ -6440,7 +6452,7 @@
         <v>6</v>
       </c>
       <c r="D452" t="n">
-        <v>6667</v>
+        <v>4148</v>
       </c>
     </row>
     <row r="453">
@@ -6454,7 +6466,7 @@
         <v>9</v>
       </c>
       <c r="D453" t="n">
-        <v>1036</v>
+        <v>10903</v>
       </c>
     </row>
     <row r="454">
@@ -6468,7 +6480,7 @@
         <v>12</v>
       </c>
       <c r="D454" t="n">
-        <v>1865</v>
+        <v>5204</v>
       </c>
     </row>
     <row r="455">
@@ -6482,7 +6494,7 @@
         <v>15</v>
       </c>
       <c r="D455" t="n">
-        <v>7005</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="456">
@@ -6496,7 +6508,7 @@
         <v>17</v>
       </c>
       <c r="D456" t="n">
-        <v>8664</v>
+        <v>9444</v>
       </c>
     </row>
     <row r="457">
@@ -6510,7 +6522,7 @@
         <v>19</v>
       </c>
       <c r="D457" t="n">
-        <v>8623</v>
+        <v>3260</v>
       </c>
     </row>
     <row r="458">
@@ -6524,7 +6536,7 @@
         <v>6</v>
       </c>
       <c r="D458" t="n">
-        <v>4042</v>
+        <v>8310</v>
       </c>
     </row>
     <row r="459">
@@ -6538,7 +6550,7 @@
         <v>9</v>
       </c>
       <c r="D459" t="n">
-        <v>5462</v>
+        <v>7831</v>
       </c>
     </row>
     <row r="460">
@@ -6552,7 +6564,7 @@
         <v>12</v>
       </c>
       <c r="D460" t="n">
-        <v>5009</v>
+        <v>8967</v>
       </c>
     </row>
     <row r="461">
@@ -6566,7 +6578,7 @@
         <v>15</v>
       </c>
       <c r="D461" t="n">
-        <v>10901</v>
+        <v>3387</v>
       </c>
     </row>
     <row r="462">
@@ -6580,7 +6592,7 @@
         <v>17</v>
       </c>
       <c r="D462" t="n">
-        <v>2007</v>
+        <v>9918</v>
       </c>
     </row>
     <row r="463">
@@ -6594,7 +6606,7 @@
         <v>19</v>
       </c>
       <c r="D463" t="n">
-        <v>1054</v>
+        <v>7709</v>
       </c>
     </row>
     <row r="464">
@@ -6608,7 +6620,7 @@
         <v>6</v>
       </c>
       <c r="D464" t="n">
-        <v>7075</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="465">
@@ -6622,7 +6634,7 @@
         <v>9</v>
       </c>
       <c r="D465" t="n">
-        <v>2246</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="466">
@@ -6636,7 +6648,7 @@
         <v>12</v>
       </c>
       <c r="D466" t="n">
-        <v>9017</v>
+        <v>7165</v>
       </c>
     </row>
     <row r="467">
@@ -6650,7 +6662,7 @@
         <v>15</v>
       </c>
       <c r="D467" t="n">
-        <v>4708</v>
+        <v>5101</v>
       </c>
     </row>
     <row r="468">
@@ -6664,7 +6676,7 @@
         <v>17</v>
       </c>
       <c r="D468" t="n">
-        <v>9430</v>
+        <v>9011</v>
       </c>
     </row>
     <row r="469">
@@ -6678,7 +6690,7 @@
         <v>19</v>
       </c>
       <c r="D469" t="n">
-        <v>8872</v>
+        <v>9962</v>
       </c>
     </row>
     <row r="470">
@@ -6692,7 +6704,7 @@
         <v>6</v>
       </c>
       <c r="D470" t="n">
-        <v>7664</v>
+        <v>3846</v>
       </c>
     </row>
     <row r="471">
@@ -6706,7 +6718,7 @@
         <v>9</v>
       </c>
       <c r="D471" t="n">
-        <v>3060</v>
+        <v>4631</v>
       </c>
     </row>
     <row r="472">
@@ -6720,7 +6732,7 @@
         <v>12</v>
       </c>
       <c r="D472" t="n">
-        <v>1123</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="473">
@@ -6734,7 +6746,7 @@
         <v>15</v>
       </c>
       <c r="D473" t="n">
-        <v>1787</v>
+        <v>9848</v>
       </c>
     </row>
     <row r="474">
@@ -6748,7 +6760,7 @@
         <v>17</v>
       </c>
       <c r="D474" t="n">
-        <v>8797</v>
+        <v>7487</v>
       </c>
     </row>
     <row r="475">
@@ -6762,7 +6774,7 @@
         <v>19</v>
       </c>
       <c r="D475" t="n">
-        <v>5512</v>
+        <v>6170</v>
       </c>
     </row>
     <row r="476">
@@ -6776,7 +6788,7 @@
         <v>6</v>
       </c>
       <c r="D476" t="n">
-        <v>6765</v>
+        <v>10559</v>
       </c>
     </row>
     <row r="477">
@@ -6790,7 +6802,7 @@
         <v>9</v>
       </c>
       <c r="D477" t="n">
-        <v>9593</v>
+        <v>6567</v>
       </c>
     </row>
     <row r="478">
@@ -6804,7 +6816,7 @@
         <v>12</v>
       </c>
       <c r="D478" t="n">
-        <v>5274</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="479">
@@ -6818,7 +6830,7 @@
         <v>15</v>
       </c>
       <c r="D479" t="n">
-        <v>10823</v>
+        <v>9866</v>
       </c>
     </row>
     <row r="480">
@@ -6832,7 +6844,7 @@
         <v>17</v>
       </c>
       <c r="D480" t="n">
-        <v>6546</v>
+        <v>4997</v>
       </c>
     </row>
     <row r="481">
@@ -6846,7 +6858,7 @@
         <v>19</v>
       </c>
       <c r="D481" t="n">
-        <v>6254</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="482">
@@ -6860,7 +6872,7 @@
         <v>6</v>
       </c>
       <c r="D482" t="n">
-        <v>10704</v>
+        <v>5247</v>
       </c>
     </row>
     <row r="483">
@@ -6874,7 +6886,7 @@
         <v>9</v>
       </c>
       <c r="D483" t="n">
-        <v>9975</v>
+        <v>6723</v>
       </c>
     </row>
     <row r="484">
@@ -6888,7 +6900,7 @@
         <v>12</v>
       </c>
       <c r="D484" t="n">
-        <v>8494</v>
+        <v>7802</v>
       </c>
     </row>
     <row r="485">
@@ -6902,7 +6914,7 @@
         <v>15</v>
       </c>
       <c r="D485" t="n">
-        <v>10962</v>
+        <v>6583</v>
       </c>
     </row>
     <row r="486">
@@ -6916,7 +6928,7 @@
         <v>17</v>
       </c>
       <c r="D486" t="n">
-        <v>8788</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="487">
@@ -6930,7 +6942,7 @@
         <v>19</v>
       </c>
       <c r="D487" t="n">
-        <v>8372</v>
+        <v>9022</v>
       </c>
     </row>
     <row r="488">
@@ -6944,7 +6956,7 @@
         <v>6</v>
       </c>
       <c r="D488" t="n">
-        <v>2158</v>
+        <v>10772</v>
       </c>
     </row>
     <row r="489">
@@ -6958,7 +6970,7 @@
         <v>9</v>
       </c>
       <c r="D489" t="n">
-        <v>1363</v>
+        <v>3366</v>
       </c>
     </row>
     <row r="490">
@@ -6972,7 +6984,7 @@
         <v>12</v>
       </c>
       <c r="D490" t="n">
-        <v>7231</v>
+        <v>4708</v>
       </c>
     </row>
     <row r="491">
@@ -6986,7 +6998,7 @@
         <v>15</v>
       </c>
       <c r="D491" t="n">
-        <v>10405</v>
+        <v>6429</v>
       </c>
     </row>
     <row r="492">
@@ -7000,7 +7012,7 @@
         <v>17</v>
       </c>
       <c r="D492" t="n">
-        <v>6156</v>
+        <v>9930</v>
       </c>
     </row>
     <row r="493">
@@ -7014,7 +7026,7 @@
         <v>19</v>
       </c>
       <c r="D493" t="n">
-        <v>4200</v>
+        <v>3184</v>
       </c>
     </row>
     <row r="494">
@@ -7028,7 +7040,7 @@
         <v>6</v>
       </c>
       <c r="D494" t="n">
-        <v>10118</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="495">
@@ -7042,7 +7054,7 @@
         <v>9</v>
       </c>
       <c r="D495" t="n">
-        <v>2859</v>
+        <v>8559</v>
       </c>
     </row>
     <row r="496">
@@ -7056,7 +7068,7 @@
         <v>12</v>
       </c>
       <c r="D496" t="n">
-        <v>8068</v>
+        <v>10824</v>
       </c>
     </row>
     <row r="497">
@@ -7070,7 +7082,7 @@
         <v>15</v>
       </c>
       <c r="D497" t="n">
-        <v>3327</v>
+        <v>6567</v>
       </c>
     </row>
     <row r="498">
@@ -7084,7 +7096,7 @@
         <v>17</v>
       </c>
       <c r="D498" t="n">
-        <v>8300</v>
+        <v>6633</v>
       </c>
     </row>
     <row r="499">
@@ -7098,7 +7110,7 @@
         <v>19</v>
       </c>
       <c r="D499" t="n">
-        <v>4684</v>
+        <v>4244</v>
       </c>
     </row>
     <row r="500">
@@ -7112,7 +7124,7 @@
         <v>6</v>
       </c>
       <c r="D500" t="n">
-        <v>5593</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="501">
@@ -7126,7 +7138,7 @@
         <v>9</v>
       </c>
       <c r="D501" t="n">
-        <v>5097</v>
+        <v>1139</v>
       </c>
     </row>
   </sheetData>
@@ -7135,7 +7147,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G10"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
@@ -7160,13 +7172,16 @@
       <c r="E1" t="s">
         <v>14</v>
       </c>
+      <c r="F1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>138633</v>
+        <v>155013</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -7177,6 +7192,9 @@
       <c r="E2" t="n">
         <v>0</v>
       </c>
+      <c r="F2" t="n">
+        <v>155013</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -7186,7 +7204,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>140691</v>
+        <v>161269</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -7194,6 +7212,9 @@
       <c r="E3" t="n">
         <v>0</v>
       </c>
+      <c r="F3" t="n">
+        <v>161269</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -7206,11 +7227,14 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>141714</v>
+        <v>129736</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
+      <c r="F4" t="n">
+        <v>129736</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -7226,7 +7250,53 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>152623</v>
+        <v>152463</v>
+      </c>
+      <c r="F5" t="n">
+        <v>152463</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>155013</v>
+      </c>
+      <c r="C10" t="n">
+        <v>161269</v>
+      </c>
+      <c r="D10" t="n">
+        <v>129736</v>
+      </c>
+      <c r="E10" t="n">
+        <v>152463</v>
+      </c>
+      <c r="F10" t="n">
+        <v>598481</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2393924</v>
       </c>
     </row>
   </sheetData>
